--- a/ai_act.xlsx
+++ b/ai_act.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\JLI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2070BE0B-A1E6-4E38-B9B4-4D677C850CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B97666DD-8B86-400A-A0A3-362F96F8C5A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="6420" xr2:uid="{F280143D-AE25-4588-8DD6-7279F32A3D04}"/>
+    <workbookView xWindow="4188" yWindow="1224" windowWidth="21372" windowHeight="11052" activeTab="1" xr2:uid="{F280143D-AE25-4588-8DD6-7279F32A3D04}"/>
   </bookViews>
   <sheets>
-    <sheet name="ai_act" sheetId="1" r:id="rId1"/>
+    <sheet name="articles" sheetId="1" r:id="rId1"/>
+    <sheet name="paragraphs" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="145">
   <si>
     <t>Risk Management System</t>
   </si>
@@ -90,38 +91,61 @@
     <t>ensure that the high-risk AI system complies with accessibility requirements in accordance with Directives (EU) 2016/2102 and (EU) 2019/882</t>
   </si>
   <si>
-    <t>The technical documentation referred to in Article 11(1) shall contain at least the following information, as applicable to the relevant AI system:
-1. A general description of the AI system including:
-(a) its intended purpose, the name of the provider and the version of the system reflecting its relation to previous versions;
-(b) how the AI system interacts with, or can be used to interact with, hardware or software, including with other AI systems, that are not part of the AI system itself, where applicable;
-(c) the versions of relevant software or firmware, and any requirements related to version updates;
-(d) the description of all the forms in which the AI system is placed on the market or put into service, such as software packages embedded into hardware, downloads, or APIs;
-(e) the description of the hardware on which the AI system is intended to run;
-(f) where the AI system is a component of products, photographs or illustrations showing external features, the marking and internal layout of those products;
-(g) a basic description of the user-interface provided to the deployer;
-(h) instructions for use for the deployer, and a basic description of the user-interface provided to the deployer, where applicable;
-2. A detailed description of the elements of the AI system and of the process for its development, including:
-(a) the methods and steps performed for the development of the AI system, including, where relevant, recourse to pre-trained systems or tools provided by third parties and how those were used, integrated or modified by the provider;
-(b) the design specifications of the system, namely the general logic of the AI system and of the algorithms; the key design choices including the rationale and assumptions made, including with regard to persons or groups of persons in respect of who, the system is intended to be used; the main classification choices; what the system is designed to optimise for, and the relevance of the different parameters; the description of the expected output and output quality of the system; the decisions about any possible trade-off made regarding the technical solutions adopted to comply with the requirements set out in Chapter III, Section 2;
-(c) the description of the system architecture explaining how software components build on or feed into each other and integrate into the overall processing; the computational resources used to develop, train, test and validate the AI system;
-(d) where relevant, the data requirements in terms of datasheets describing the training methodologies and techniques and the training data sets used, including a general description of these data sets, information about their provenance, scope and main characteristics; how the data was obtained and selected; labelling procedures (e.g. for supervised learning), data cleaning methodologies (e.g. outliers detection);
-(e) assessment of the human oversight measures needed in accordance with Article 14, including an assessment of the technical measures needed to facilitate the interpretation of the outputs of AI systems by the deployers, in accordance with Article 13(3), point (d);
-(f) where applicable, a detailed description of pre-determined changes to the AI system and its performance, together with all the relevant information related to the technical solutions adopted to ensure continuous compliance of the AI system with the relevant requirements set out in Chapter III, Section 2;
-(g) the validation and testing procedures used, including information about the validation and testing data used and their main characteristics; metrics used to measure accuracy, robustness and compliance with other relevant requirements set out in Chapter III, Section 2, as well as potentially discriminatory impacts; test logs and all test reports dated and signed by the responsible persons, including with regard to pre-determined changes as referred to under point (f);
-(h) cybersecurity measures put in place;
-3. Detailed information about the monitoring, functioning and control of the AI system, in particular with regard to: its capabilities and limitations in performance, including the degrees of accuracy for specific persons or groups of persons on which the system is intended to be used and the overall expected level of accuracy in relation to its intended purpose; the foreseeable unintended outcomes and sources of risks to health and safety, fundamental rights and discrimination in view of the intended purpose of the AI system; the human oversight measures needed in accordance with Article 14, including the technical measures put in place to facilitate the interpretation of the outputs of AI systems by the deployers; specifications on input data, as appropriate;
-4. A description of the appropriateness of the performance metrics for the specific AI system;
-5. A detailed description of the risk management system in accordance with Article 9;
-6. A description of relevant changes made by the provider to the system through its lifecycle;
-7. A list of the harmonised standards applied in full or in part the references of which have been published in the Official Journal of the European Union; where no such harmonised standards have been applied, a detailed description of the solutions adopted to meet the requirements set out in Chapter III, Section 2, including a list of other relevant standards and technical specifications applied;
-8. A copy of the EU declaration of conformity referred to in Article 47;
-9. A detailed description of the system in place to evaluate the AI system performance in the post-market phase in accordance with Article 72, including the post-market monitoring plan referred to in Article 72(3).</t>
-  </si>
-  <si>
     <t>Technical documentation (Annex IV)</t>
   </si>
   <si>
     <t>EU declaration of conformity (Annex V)</t>
+  </si>
+  <si>
+    <t>Conformity assessment (Annex VI)</t>
+  </si>
+  <si>
+    <t>Conformity assessment (Annex VII)</t>
+  </si>
+  <si>
+    <t>Registration (Annex VIII)</t>
+  </si>
+  <si>
+    <t>indicate on the high-risk AI system or, where that is not possible, on its packaging or its accompanying documentation, as applicable, their name, registered trade name or registered trade mark, the address at which they can be contacted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>heading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>content</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers shall establish and document a post-market monitoring system in a manner that is proportionate to the nature of the AI technologies and the risks of the high-risk AI system.
+2. The post-market monitoring system shall actively and systematically collect, document and analyse relevant data which may be provided by deployers or which may be collected through other sources on the performance of high-risk AI systems throughout their lifetime, and which allow the provider to evaluate the continuous compliance of AI systems with the requirements set out in Chapter III, Section 2. Where relevant, post-market monitoring shall include an analysis of the interaction with other AI systems. This obligation shall not cover sensitive operational data of deployers which are law-enforcement authorities.
+3. The post-market monitoring system shall be based on a post-market monitoring plan. The post-market monitoring plan shall be part of the technical documentation referred to in Annex IV. The Commission shall adopt an implementing act laying down detailed provisions establishing a template for the post-market monitoring plan and the list of elements to be included in the plan by 2 February 2026. That implementing act shall be adopted in accordance with the examination procedure referred to in Article 98(2).
+4. For high-risk AI systems covered by the Union harmonisation legislation listed in Section A of Annex I, where a post-market monitoring system and plan are already established under that legislation, in order to ensure consistency, avoid duplications and minimise additional burdens, providers shall have a choice of integrating, as appropriate, the necessary elements described in paragraphs 1, 2 and 3 using the template referred in paragraph 3 into systems and plans already existing under that legislation, provided that it achieves an equivalent level of protection.
+The first subparagraph of this paragraph shall also apply to high-risk AI systems referred to in point 5 of Annex III placed on the market or put into service by financial institutions that are subject to requirements under Union financial services law regarding their internal governance, arrangements or processes.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. A risk management system shall be established, implemented, documented and maintained in relation to high-risk AI systems.
+2. The risk management system shall be understood as a continuous iterative process planned and run throughout the entire lifecycle of a high-risk AI system, requiring regular systematic review and updating. It shall comprise the following steps:
+(a) the identification and analysis of the known and the reasonably foreseeable risks that the high-risk AI system can pose to health, safety or fundamental rights when the high-risk AI system is used in accordance with its intended purpose;
+(b) the estimation and evaluation of the risks that may emerge when the high-risk AI system is used in accordance with its intended purpose, and under conditions of reasonably foreseeable misuse;
+(c) the evaluation of other risks possibly arising, based on the analysis of data gathered from the post-market monitoring system referred to in Article 72;
+(d) the adoption of appropriate and targeted risk management measures designed to address the risks identified pursuant to point (a).
+3. The risks referred to in this Article shall concern only those which may be reasonably mitigated or eliminated through the development or design of the high-risk AI system, or the provision of adequate technical information.
+4. The risk management measures referred to in paragraph 2, point (d), shall give due consideration to the effects and possible interaction resulting from the combined application of the requirements set out in this Section, with a view to minimising risks more effectively while achieving an appropriate balance in implementing the measures to fulfil those requirements.
+5. The risk management measures referred to in paragraph 2, point (d), shall be such that the relevant residual risk associated with each hazard, as well as the overall residual risk of the high-risk AI systems is judged to be acceptable.
+In identifying the most appropriate risk management measures, the following shall be ensured:
+(a) elimination or reduction of risks identified and evaluated pursuant to paragraph 2 in as far as technically feasible through adequate design and development of the high-risk AI system;
+(b) where appropriate, implementation of adequate mitigation and control measures addressing risks that cannot be eliminated;
+(c) provision of information required pursuant to Article 13 and, where appropriate, training to deployers.
+With a view to eliminating or reducing risks related to the use of the high-risk AI system, due consideration shall be given to the technical knowledge, experience, education, the training to be expected by the deployer, and the presumable context in which the system is intended to be used.
+6. High-risk AI systems shall be tested for the purpose of identifying the most appropriate and targeted risk management measures. Testing shall ensure that high-risk AI systems perform consistently for their intended purpose and that they are in compliance with the requirements set out in this Section.
+7. Testing procedures may include testing in real-world conditions in accordance with Article 60.
+8. The testing of high-risk AI systems shall be performed, as appropriate, at any time throughout the development process, and, in any event, prior to their being placed on the market or put into service. Testing shall be carried out against prior defined metrics and probabilistic thresholds that are appropriate to the intended purpose of the high-risk AI system.
+9. When implementing the risk management system as provided for in paragraphs 1 to 7, providers shall give consideration to whether in view of its intended purpose the high-risk AI system is likely to have an adverse impact on persons under the age of 18 and, as appropriate, other vulnerable groups.
+10. For providers of high-risk AI systems that are subject to requirements regarding internal risk management processes under other relevant provisions of Union law, the aspects provided in paragraphs 1 to 9 may be part of, or combined with, the risk management procedures established pursuant to that law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>The EU declaration of conformity referred to in Article 47, shall contain all of the following information:
@@ -133,15 +157,7 @@
 6. References to any relevant harmonised standards used or any other common specification in relation to which conformity is declared;
 7. Where applicable, the name and identification number of the notified body, a description of the conformity assessment procedure performed, and identification of the certificate issued;
 8. The place and date of issue of the declaration, the name and function of the person who signed it, as well as an indication for, or on behalf of whom, that person signed, a signature.</t>
-  </si>
-  <si>
-    <t>Conformity assessment (Annex VI)</t>
-  </si>
-  <si>
-    <t>Conformity assessment (Annex VII)</t>
-  </si>
-  <si>
-    <t>Registration (Annex VIII)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Section A — Information to be submitted by providers of high-risk AI systems in accordance with Article 49(1)
@@ -159,152 +175,24 @@
 11. A copy of the EU declaration of conformity referred to in Article 47;
 12. Electronic instructions for use; this information shall not be provided for high-risk AI systems in the areas of law enforcement or migration, asylum and border control management referred to in Annex III, points 1, 6 and 7;
 13. A URL for additional information (optional).</t>
-  </si>
-  <si>
-    <t>1. High-risk AI systems which make use of techniques involving the training of AI models with data shall be developed on the basis of training, validation and testing data sets that meet the quality criteria referred to in paragraphs 2 to 5 whenever such data sets are used.
-2. Training, validation and testing data sets shall be subject to data governance and management practices appropriate for the intended purpose of the high-risk AI system. Those practices shall concern in particular:
-(a) the relevant design choices;
-(b) data collection processes and the origin of data, and in the case of personal data, the original purpose of the data collection;
-(c) relevant data-preparation processing operations, such as annotation, labelling, cleaning, updating, enrichment and aggregation;
-(d) the formulation of assumptions, in particular with respect to the information that the data are supposed to measure and represent;
-(e) an assessment of the availability, quantity and suitability of the data sets that are needed;
-(f) examination in view of possible biases that are likely to affect the health and safety of persons, have a negative impact on fundamental rights or lead to discrimination prohibited under Union law, especially where data outputs influence inputs for future operations;
-(g) appropriate measures to detect, prevent and mitigate possible biases identified according to point (f);
-(h) the identification of relevant data gaps or shortcomings that prevent compliance with this Regulation, and how those gaps and shortcomings can be addressed.
-3. Training, validation and testing data sets shall be relevant, sufficiently representative, and to the best extent possible, free of errors and complete in view of the intended purpose. They shall have the appropriate statistical properties, including, where applicable, as regards the persons or groups of persons in relation to whom the high-risk AI system is intended to be used. Those characteristics of the data sets may be met at the level of individual data sets or at the level of a combination thereof.
-4. Data sets shall take into account, to the extent required by the intended purpose, the characteristics or elements that are particular to the specific geographical, contextual, behavioural or functional setting within which the high-risk AI system is intended to be used.
-5. To the extent that it is strictly necessary for the purpose of ensuring bias detection and correction in relation to the high-risk AI systems in accordance with paragraph (2), points (f) and (g) of this Article, the providers of such systems may exceptionally process special categories of personal data, subject to appropriate safeguards for the fundamental rights and freedoms of natural persons. In addition to the provisions set out in Regulations (EU) 2016/679 and (EU) 2018/1725 and Directive (EU) 2016/680, all the following conditions must be met in order for such processing to occur:
-(a) the bias detection and correction cannot be effectively fulfilled by processing other data, including synthetic or anonymised data;
-(b) the special categories of personal data are subject to technical limitations on the re-use of the personal data, and state-of-the-art security and privacy-preserving measures, including pseudonymisation;
-(c) the special categories of personal data are subject to measures to ensure that the personal data processed are secured, protected, subject to suitable safeguards, including strict controls and documentation of the access, to avoid misuse and ensure that only authorised persons have access to those personal data with appropriate confidentiality obligations;
-(d) the special categories of personal data are not to be transmitted, transferred or otherwise accessed by other parties;
-(e) the special categories of personal data are deleted once the bias has been corrected or the personal data has reached the end of its retention period, whichever comes first;
-(f) the records of processing activities pursuant to Regulations (EU) 2016/679 and (EU) 2018/1725 and Directive (EU) 2016/680 include the reasons why the processing of special categories of personal data was strictly necessary to detect and correct biases, and why that objective could not be achieved by processing other data.
-6. For the development of high-risk AI systems not using techniques involving the training of AI models, paragraphs 2 to 5 apply only to the testing data sets.</t>
-  </si>
-  <si>
-    <t>1. The technical documentation of a high-risk AI system shall be drawn up before that system is placed on the market or put into service and shall be kept up-to date.
-The technical documentation shall be drawn up in such a way as to demonstrate that the high-risk AI system complies with the requirements set out in this Section and to provide national competent authorities and notified bodies with the necessary information in a clear and comprehensive form to assess the compliance of the AI system with those requirements. It shall contain, at a minimum, the elements set out in Annex IV. SMEs, including start-ups, may provide the elements of the technical documentation specified in Annex IV in a simplified manner. To that end, the Commission shall establish a simplified technical documentation form targeted at the needs of small and microenterprises. Where an SME, including a start-up, opts to provide the information required in Annex IV in a simplified manner, it shall use the form referred to in this paragraph. Notified bodies shall accept the form for the purposes of the conformity assessment.
-2. Where a high-risk AI system related to a product covered by the Union harmonisation legislation listed in Section A of Annex I is placed on the market or put into service, a single set of technical documentation shall be drawn up containing all the information set out in paragraph 1, as well as the information required under those legal acts.
-3. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annex IV, where necessary, to ensure that, in light of technical progress, the technical documentation provides all the information necessary to assess the compliance of the system with the requirements set out in this Section.</t>
-  </si>
-  <si>
-    <t>1. High-risk AI systems shall technically allow for the automatic recording of events (logs) over the lifetime of the system.
-2. In order to ensure a level of traceability of the functioning of a high-risk AI system that is appropriate to the intended purpose of the system, logging capabilities shall enable the recording of events relevant for:
-(a) identifying situations that may result in the high-risk AI system presenting a risk within the meaning of Article 79(1) or in a substantial modification;
-(b) facilitating the post-market monitoring referred to in Article 72; and
-(c) monitoring the operation of high-risk AI systems referred to in Article 26(5).
-3. For high-risk AI systems referred to in point 1 (a), of Annex III, the logging capabilities shall provide, at a minimum:
-(a) recording of the period of each use of the system (start date and time and end date and time of each use);
-(b) the reference database against which input data has been checked by the system;
-(c) the input data for which the search has led to a match;
-(d) the identification of the natural persons involved in the verification of the results, as referred to in Article 14(5).</t>
-  </si>
-  <si>
-    <t>1. High-risk AI systems shall be designed and developed in such a way as to ensure that their operation is sufficiently transparent to enable deployers to interpret a system’s output and use it appropriately. An appropriate type and degree of transparency shall be ensured with a view to achieving compliance with the relevant obligations of the provider and deployer set out in Section 3.
-2. High-risk AI systems shall be accompanied by instructions for use in an appropriate digital format or otherwise that include concise, complete, correct and clear information that is relevant, accessible and comprehensible to deployers.
-3. The instructions for use shall contain at least the following information:
-(a) the identity and the contact details of the provider and, where applicable, of its authorised representative;
-(b) the characteristics, capabilities and limitations of performance of the high-risk AI system, including:
-(i) its intended purpose;
-(ii) the level of accuracy, including its metrics, robustness and cybersecurity referred to in Article 15 against which the high-risk AI system has been tested and validated and which can be expected, and any known and foreseeable circumstances that may have an impact on that expected level of accuracy, robustness and cybersecurity;
-(iii) any known or foreseeable circumstance, related to the use of the high-risk AI system in accordance with its intended purpose or under conditions of reasonably foreseeable misuse, which may lead to risks to the health and safety or fundamental rights referred to in Article 9(2);
-(iv) where applicable, the technical capabilities and characteristics of the high-risk AI system to provide information that is relevant to explain its output;
-(v) when appropriate, its performance regarding specific persons or groups of persons on which the system is intended to be used;
-(vi) when appropriate, specifications for the input data, or any other relevant information in terms of the training, validation and testing data sets used, taking into account the intended purpose of the high-risk AI system;
-(vii) where applicable, information to enable deployers to interpret the output of the high-risk AI system and use it appropriately;
-(c) the changes to the high-risk AI system and its performance which have been pre-determined by the provider at the moment of the initial conformity assessment, if any;
-(d) the human oversight measures referred to in Article 14, including the technical measures put in place to facilitate the interpretation of the outputs of the high-risk AI systems by the deployers;
-(e) the computational and hardware resources needed, the expected lifetime of the high-risk AI system and any necessary maintenance and care measures, including their frequency, to ensure the proper functioning of that AI system, including as regards software updates;
-(f) where relevant, a description of the mechanisms included within the high-risk AI system that allows deployers to properly collect, store and interpret the logs in accordance with Article 12.</t>
-  </si>
-  <si>
-    <t>1. High-risk AI systems shall be designed and developed in such a way, including with appropriate human-machine interface tools, that they can be effectively overseen by natural persons during the period in which they are in use.
-2. Human oversight shall aim to prevent or minimise the risks to health, safety or fundamental rights that may emerge when a high-risk AI system is used in accordance with its intended purpose or under conditions of reasonably foreseeable misuse, in particular where such risks persist despite the application of other requirements set out in this Section.
-3. The oversight measures shall be commensurate with the risks, level of autonomy and context of use of the high-risk AI system, and shall be ensured through either one or both of the following types of measures:
-(a) measures identified and built, when technically feasible, into the high-risk AI system by the provider before it is placed on the market or put into service;
-(b) measures identified by the provider before placing the high-risk AI system on the market or putting it into service and that are appropriate to be implemented by the deployer.
-4. For the purpose of implementing paragraphs 1, 2 and 3, the high-risk AI system shall be provided to the deployer in such a way that natural persons to whom human oversight is assigned are enabled, as appropriate and proportionate:
-(a) to properly understand the relevant capacities and limitations of the high-risk AI system and be able to duly monitor its operation, including in view of detecting and addressing anomalies, dysfunctions and unexpected performance;
-(b) to remain aware of the possible tendency of automatically relying or over-relying on the output produced by a high-risk AI system (automation bias), in particular for high-risk AI systems used to provide information or recommendations for decisions to be taken by natural persons;
-(c) to correctly interpret the high-risk AI system’s output, taking into account, for example, the interpretation tools and methods available;
-(d) to decide, in any particular situation, not to use the high-risk AI system or to otherwise disregard, override or reverse the output of the high-risk AI system;
-(e) to intervene in the operation of the high-risk AI system or interrupt the system through a ‘stop’ button or a similar procedure that allows the system to come to a halt in a safe state.
-5. For high-risk AI systems referred to in point 1(a) of Annex III, the measures referred to in paragraph 3 of this Article shall be such as to ensure that, in addition, no action or decision is taken by the deployer on the basis of the identification resulting from the system unless that identification has been separately verified and confirmed by at least two natural persons with the necessary competence, training and authority.
-The requirement for a separate verification by at least two natural persons shall not apply to high-risk AI systems used for the purposes of law enforcement, migration, border control or asylum, where Union or national law considers the application of this requirement to be disproportionate.</t>
-  </si>
-  <si>
-    <t>1. High-risk AI systems shall be designed and developed in such a way that they achieve an appropriate level of accuracy, robustness, and cybersecurity, and that they perform consistently in those respects throughout their lifecycle.
-2. To address the technical aspects of how to measure the appropriate levels of accuracy and robustness set out in paragraph 1 and any other relevant performance metrics, the Commission shall, in cooperation with relevant stakeholders and organisations such as metrology and benchmarking authorities, encourage, as appropriate, the development of benchmarks and measurement methodologies.
-3. The levels of accuracy and the relevant accuracy metrics of high-risk AI systems shall be declared in the accompanying instructions of use.
-4. High-risk AI systems shall be as resilient as possible regarding errors, faults or inconsistencies that may occur within the system or the environment in which the system operates, in particular due to their interaction with natural persons or other systems. Technical and organisational measures shall be taken in this regard.
-The robustness of high-risk AI systems may be achieved through technical redundancy solutions, which may include backup or fail-safe plans.
-High-risk AI systems that continue to learn after being placed on the market or put into service shall be developed in such a way as to eliminate or reduce as far as possible the risk of possibly biased outputs influencing input for future operations (feedback loops), and as to ensure that any such feedback loops are duly addressed with appropriate mitigation measures.
-5. High-risk AI systems shall be resilient against attempts by unauthorised third parties to alter their use, outputs or performance by exploiting system vulnerabilities.
-The technical solutions aiming to ensure the cybersecurity of high-risk AI systems shall be appropriate to the relevant circumstances and the risks.
-The technical solutions to address AI specific vulnerabilities shall include, where appropriate, measures to prevent, detect, respond to, resolve and control for attacks trying to manipulate the training data set (data poisoning), or pre-trained components used in training (model poisoning), inputs designed to cause the AI model to make a mistake (adversarial examples or model evasion), confidentiality attacks or model flaws.</t>
-  </si>
-  <si>
-    <t>1. Providers of high-risk AI systems shall put a quality management system in place that ensures compliance with this Regulation. That system shall be documented in a systematic and orderly manner in the form of written policies, procedures and instructions, and shall include at least the following aspects:
-(a) a strategy for regulatory compliance, including compliance with conformity assessment procedures and procedures for the management of modifications to the high-risk AI system;
-(b) techniques, procedures and systematic actions to be used for the design, design control and design verification of the high-risk AI system;
-(c) techniques, procedures and systematic actions to be used for the development, quality control and quality assurance of the high-risk AI system;
-(d) examination, test and validation procedures to be carried out before, during and after the development of the high-risk AI system, and the frequency with which they have to be carried out;
-(e) technical specifications, including standards, to be applied and, where the relevant harmonised standards are not applied in full or do not cover all of the relevant requirements set out in Section 2, the means to be used to ensure that the high-risk AI system complies with those requirements;
-(f) systems and procedures for data management, including data acquisition, data collection, data analysis, data labelling, data storage, data filtration, data mining, data aggregation, data retention and any other operation regarding the data that is performed before and for the purpose of the placing on the market or the putting into service of high-risk AI systems;
-(g) the risk management system referred to in Article 9;
-(h) the setting-up, implementation and maintenance of a post-market monitoring system, in accordance with Article 72;
-(i) procedures related to the reporting of a serious incident in accordance with Article 73;
-(j) the handling of communication with national competent authorities, other relevant authorities, including those providing or supporting the access to data, notified bodies, other operators, customers or other interested parties;
-(k) systems and procedures for record-keeping of all relevant documentation and information;
-(l) resource management, including security-of-supply related measures;
-(m) an accountability framework setting out the responsibilities of the management and other staff with regard to all the aspects listed in this paragraph.
-2. The implementation of the aspects referred to in paragraph 1 shall be proportionate to the size of the provider’s organisation. Providers shall, in any event, respect the degree of rigour and the level of protection required to ensure the compliance of their high-risk AI systems with this Regulation.
-3. Providers of high-risk AI systems that are subject to obligations regarding quality management systems or an equivalent function under relevant sectoral Union law may include the aspects listed in paragraph 1 as part of the quality management systems pursuant to that law.
-4. For providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law, the obligation to put in place a quality management system, with the exception of paragraph 1, points (g), (h) and (i) of this Article, shall be deemed to be fulfilled by complying with the rules on internal governance arrangements or processes pursuant to the relevant Union financial services law. To that end, any harmonised standards referred to in Article 40 shall be taken into account.</t>
-  </si>
-  <si>
-    <t>1. The provider shall, for a period ending 10 years after the high-risk AI system has been placed on the market or put into service, keep at the disposal of the national competent authorities:
-(a) the technical documentation referred to in Article 11;
-(b) the documentation concerning the quality management system referred to in Article 17;
-(c) the documentation concerning the changes approved by notified bodies, where applicable;
-(d) the decisions and other documents issued by the notified bodies, where applicable;
-(e) the EU declaration of conformity referred to in Article 47.
-2. Each Member State shall determine conditions under which the documentation referred to in paragraph 1 remains at the disposal of the national competent authorities for the period indicated in that paragraph for the cases when a provider or its authorised representative established on its territory goes bankrupt or ceases its activity prior to the end of that period.
-3. Providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law shall maintain the technical documentation as part of the documentation kept under the relevant Union financial services law.</t>
-  </si>
-  <si>
-    <t>1. Providers of high-risk AI systems shall keep the logs referred to in Article 12(1), automatically generated by their high-risk AI systems, to the extent such logs are under their control. Without prejudice to applicable Union or national law, the logs shall be kept for a period appropriate to the intended purpose of the high-risk AI system, of at least six months, unless provided otherwise in the applicable Union or national law, in particular in Union law on the protection of personal data.
-2. Providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law shall maintain the logs automatically generated by their high-risk AI systems as part of the documentation kept under the relevant financial services law.</t>
-  </si>
-  <si>
-    <t>1. Providers of high-risk AI systems which consider or have reason to consider that a high-risk AI system that they have placed on the market or put into service is not in conformity with this Regulation shall immediately take the necessary corrective actions to bring that system into conformity, to withdraw it, to disable it, or to recall it, as appropriate. They shall inform the distributors of the high-risk AI system concerned and, where applicable, the deployers, the authorised representative and importers accordingly.
-2. Where the high-risk AI system presents a risk within the meaning of Article 79(1) and the provider becomes aware of that risk, it shall immediately investigate the causes, in collaboration with the reporting deployer, where applicable, and inform the market surveillance authorities competent for the high-risk AI system concerned and, where applicable, the notified body that issued a certificate for that high-risk AI system in accordance with Article 44, in particular, of the nature of the non-compliance and of any relevant corrective action taken.</t>
-  </si>
-  <si>
-    <t>1. For high-risk AI systems listed in point 1 of Annex III, where, in demonstrating the compliance of a high-risk AI system with the requirements set out in Section 2, the provider has applied harmonised standards referred to in Article 40, or, where applicable, common specifications referred to in Article 41, the provider shall opt for one of the following conformity assessment procedures based on:
-(a) the internal control referred to in Annex VI; or
-(b) the assessment of the quality management system and the assessment of the technical documentation, with the involvement of a notified body, referred to in Annex VII.
-In demonstrating the compliance of a high-risk AI system with the requirements set out in Section 2, the provider shall follow the conformity assessment procedure set out in Annex VII where:
-(a) harmonised standards referred to in Article 40 do not exist, and common specifications referred to in Article 41 are not available;
-(b) the provider has not applied, or has applied only part of, the harmonised standard;
-(c) the common specifications referred to in point (a) exist, but the provider has not applied them;
-(d) one or more of the harmonised standards referred to in point (a) has been published with a restriction, and only on the part of the standard that was restricted.
-For the purposes of the conformity assessment procedure referred to in Annex VII, the provider may choose any of the notified bodies. However, where the high-risk AI system is intended to be put into service by law enforcement, immigration or asylum authorities or by Union institutions, bodies, offices or agencies, the market surveillance authority referred to in Article 74(8) or (9), as applicable, shall act as a notified body.
-2. For high-risk AI systems referred to in points 2 to 8 of Annex III, providers shall follow the conformity assessment procedure based on internal control as referred to in Annex VI, which does not provide for the involvement of a notified body.
-3. For high-risk AI systems covered by the Union harmonisation legislation listed in Section A of Annex I, the provider shall follow the relevant conformity assessment procedure as required under those legal acts. The requirements set out in Section 2 of this Chapter shall apply to those high-risk AI systems and shall be part of that assessment. Points 4.3., 4.4., 4.5. and the fifth paragraph of point 4.6 of Annex VII shall also apply.
-For the purposes of that assessment, notified bodies which have been notified under those legal acts shall be entitled to control the conformity of the high-risk AI systems with the requirements set out in Section 2, provided that the compliance of those notified bodies with requirements laid down in Article 31(4), (5), (10) and (11) has been assessed in the context of the notification procedure under those legal acts.
-Where a legal act listed in Section A of Annex I enables the product manufacturer to opt out from a third-party conformity assessment, provided that that manufacturer has applied all harmonised standards covering all the relevant requirements, that manufacturer may use that option only if it has also applied harmonised standards or, where applicable, common specifications referred to in Article 41, covering all requirements set out in Section 2 of this Chapter.
-4. High-risk AI systems that have already been subject to a conformity assessment procedure shall undergo a new conformity assessment procedure in the event of a substantial modification, regardless of whether the modified system is intended to be further distributed or continues to be used by the current deployer.
-For high-risk AI systems that continue to learn after being placed on the market or put into service, changes to the high-risk AI system and its performance that have been pre-determined by the provider at the moment of the initial conformity assessment and are part of the information contained in the technical documentation referred to in point 2(f) of Annex IV, shall not constitute a substantial modification.
-5. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annexes VI and VII by updating them in light of technical progress.
-6. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend paragraphs 1 and 2 of this Article in order to subject high-risk AI systems referred to in points 2 to 8 of Annex III to the conformity assessment procedure referred to in Annex VII or parts thereof. The Commission shall adopt such delegated acts taking into account the effectiveness of the conformity assessment procedure based on internal control referred to in Annex VI in preventing or minimising the risks to health and safety and protection of fundamental rights posed by such systems, as well as the availability of adequate capacities and resources among notified bodies.</t>
-  </si>
-  <si>
-    <t>1. The conformity assessment procedure based on internal control is the conformity assessment procedure based on points 2, 3 and 4.
-2. The provider verifies that the established quality management system is in compliance with the requirements of Article 17.
-3. The provider examines the information contained in the technical documentation in order to assess the compliance of the AI system with the relevant essential requirements set out in Chapter III, Section 2.
-4. The provider also verifies that the design and development process of the AI system and its post-market monitoring as referred to in Article 72 is consistent with the technical documentation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The following information shall be provided and thereafter kept up to date with regard to high-risk AI systems to be registered in accordance with Article 49(1):
+1. The name, address and contact details of the provider;
+2. Where submission of information is carried out by another person on behalf of the provider, the name, address and contact details of that person;
+3. The name, address and contact details of the authorised representative, where applicable;
+4. The AI system trade name and any additional unambiguous reference allowing the identification and traceability of the AI system;
+5. A description of the intended purpose of the AI system and of the components and functions supported through this AI system;
+6. A basic and concise description of the information used by the system (data, inputs) and its operating logic;
+7. The status of the AI system (on the market, or in service; no longer placed on the market/in service, recalled);
+8. The type, number and expiry date of the certificate issued by the notified body and the name or identification number of that notified body, where applicable;
+9. A scanned copy of the certificate referred to in point 8, where applicable;
+10. Any Member States in which the AI system has been placed on the market, put into service or made available in the Union;
+11. A copy of the EU declaration of conformity referred to in Article 47;
+12. Electronic instructions for use; this information shall not be provided for high-risk AI systems in the areas of law enforcement or migration, asylum and border control management referred to in Annex III, points 1, 6 and 7;
+13. A URL for additional information (optional).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Introduction
@@ -345,6 +233,301 @@
 5.1. The purpose of the surveillance carried out by the notified body referred to in Point 3 is to make sure that the provider duly complies with the terms and conditions of the approved quality management system.
 5.2. For assessment purposes, the provider shall allow the notified body to access the premises where the design, development, testing of the AI systems is taking place. The provider shall further share with the notified body all necessary information.
 5.3. The notified body shall carry out periodic audits to make sure that the provider maintains and applies the quality management system and shall provide the provider with an audit report. In the context of those audits, the notified body may carry out additional tests of the AI systems for which a Union technical documentation assessment certificate was issued.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Quality management system
+3.1. The application of the provider shall include:
+(a) the name and address of the provider and, if the application is lodged by an authorised representative, also their name and address;
+(b) the list of AI systems covered under the same quality management system;
+(c) the technical documentation for each AI system covered under the same quality management system;
+(d) the documentation concerning the quality management system which shall cover all the aspects listed under Article 17;
+(e) a description of the procedures in place to ensure that the quality management system remains adequate and effective;
+(f) a written declaration that the same application has not been lodged with any other notified body.
+3.2. The quality management system shall be assessed by the notified body, which shall determine whether it satisfies the requirements referred to in Article 17.
+The decision shall be notified to the provider or its authorised representative.
+The notification shall contain the conclusions of the assessment of the quality management system and the reasoned assessment decision.
+3.3. The quality management system as approved shall continue to be implemented and maintained by the provider so that it remains adequate and efficient.
+3.4. Any intended change to the approved quality management system or the list of AI systems covered by the latter shall be brought to the attention of the notified body by the provider.
+The proposed changes shall be examined by the notified body, which shall decide whether the modified quality management system continues to satisfy the requirements referred to in point 3.2 or whether a reassessment is necessary.
+The notified body shall notify the provider of its decision. The notification shall contain the conclusions of the examination of the changes and the reasoned assessment decision.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Control of the technical documentation.
+4.1. In addition to the application referred to in point 3, an application with a notified body of their choice shall be lodged by the provider for the assessment of the technical documentation relating to the AI system which the provider intends to place on the market or put into service and which is covered by the quality management system referred to under point 3.
+4.2. The application shall include:
+(a) the name and address of the provider;
+(b) a written declaration that the same application has not been lodged with any other notified body;
+(c) the technical documentation referred to in Annex IV.
+4.3. The technical documentation shall be examined by the notified body. Where relevant, and limited to what is necessary to fulfil its tasks, the notified body shall be granted full access to the training, validation, and testing data sets used, including, where appropriate and subject to security safeguards, through API or other relevant technical means and tools enabling remote access.
+4.4. In examining the technical documentation, the notified body may require that the provider supply further evidence or carry out further tests so as to enable a proper assessment of the conformity of the AI system with the requirements set out in Chapter III, Section 2. Where the notified body is not satisfied with the tests carried out by the provider, the notified body shall itself directly carry out adequate tests, as appropriate.
+4.5. Where necessary to assess the conformity of the high-risk AI system with the requirements set out in Chapter III, Section 2, after all other reasonable means to verify conformity have been exhausted and have proven to be insufficient, and upon a reasoned request, the notified body shall also be granted access to the training and trained models of the AI system, including its relevant parameters. Such access shall be subject to existing Union law on the protection of intellectual property and trade secrets.
+4.6. The decision of the notified body shall be notified to the provider or its authorised representative. The notification shall contain the conclusions of the assessment of the technical documentation and the reasoned assessment decision.
+Where the AI system is in conformity with the requirements set out in Chapter III, Section 2, the notified body shall issue a Union technical documentation assessment certificate. The certificate shall indicate the name and address of the provider, the conclusions of the examination, the conditions (if any) for its validity and the data necessary for the identification of the AI system.
+The certificate and its annexes shall contain all relevant information to allow the conformity of the AI system to be evaluated, and to allow for control of the AI system while in use, where applicable.
+Where the AI system is not in conformity with the requirements set out in Chapter III, Section 2, the notified body shall refuse to issue a Union technical documentation assessment certificate and shall inform the applicant accordingly, giving detailed reasons for its refusal.
+Where the AI system does not meet the requirement relating to the data used to train it, re-training of the AI system will be needed prior to the application for a new conformity assessment. In this case, the reasoned assessment decision of the notified body refusing to issue the Union technical documentation assessment certificate shall contain specific considerations on the quality data used to train the AI system, in particular on the reasons for non-compliance.
+4.7. Any change to the AI system that could affect the compliance of the AI system with the requirements or its intended purpose shall be assessed by the notified body which issued the Union technical documentation assessment certificate. The provider shall inform such notified body of its intention to introduce any of the abovementioned changes, or if it otherwise becomes aware of the occurrence of such changes. The intended changes shall be assessed by the notified body, which shall decide whether those changes require a new conformity assessment in accordance with Article 43(4) or whether they could be addressed by means of a supplement to the Union technical documentation assessment certificate. In the latter case, the notified body shall assess the changes, notify the provider of its decision and, where the changes are approved, issue to the provider a supplement to the Union technical documentation assessment certificate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Surveillance of the approved quality management system.
+5.1. The purpose of the surveillance carried out by the notified body referred to in Point 3 is to make sure that the provider duly complies with the terms and conditions of the approved quality management system.
+5.2. For assessment purposes, the provider shall allow the notified body to access the premises where the design, development, testing of the AI systems is taking place. The provider shall further share with the notified body all necessary information.
+5.3. The notified body shall carry out periodic audits to make sure that the provider maintains and applies the quality management system and shall provide the provider with an audit report. In the context of those audits, the notified body may carry out additional tests of the AI systems for which a Union technical documentation assessment certificate was issued.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems which make use of techniques involving the training of AI models with data shall be developed on the basis of training, validation and testing data sets that meet the quality criteria referred to in paragraphs 2 to 5 whenever such data sets are used.
+2. Training, validation and testing data sets shall be subject to data governance and management practices appropriate for the intended purpose of the high-risk AI system. Those practices shall concern in particular:
+(a) the relevant design choices;
+(b) data collection processes and the origin of data, and in the case of personal data, the original purpose of the data collection;
+(c) relevant data-preparation processing operations, such as annotation, labelling, cleaning, updating, enrichment and aggregation;
+(d) the formulation of assumptions, in particular with respect to the information that the data are supposed to measure and represent;
+(e) an assessment of the availability, quantity and suitability of the data sets that are needed;
+(f) examination in view of possible biases that are likely to affect the health and safety of persons, have a negative impact on fundamental rights or lead to discrimination prohibited under Union law, especially where data outputs influence inputs for future operations;
+(g) appropriate measures to detect, prevent and mitigate possible biases identified according to point (f);
+(h) the identification of relevant data gaps or shortcomings that prevent compliance with this Regulation, and how those gaps and shortcomings can be addressed.
+3. Training, validation and testing data sets shall be relevant, sufficiently representative, and to the best extent possible, free of errors and complete in view of the intended purpose. They shall have the appropriate statistical properties, including, where applicable, as regards the persons or groups of persons in relation to whom the high-risk AI system is intended to be used. Those characteristics of the data sets may be met at the level of individual data sets or at the level of a combination thereof.
+4. Data sets shall take into account, to the extent required by the intended purpose, the characteristics or elements that are particular to the specific geographical, contextual, behavioural or functional setting within which the high-risk AI system is intended to be used.
+5. To the extent that it is strictly necessary for the purpose of ensuring bias detection and correction in relation to the high-risk AI systems in accordance with paragraph (2), points (f) and (g) of this Article, the providers of such systems may exceptionally process special categories of personal data, subject to appropriate safeguards for the fundamental rights and freedoms of natural persons. In addition to the provisions set out in Regulations (EU) 2016/679 and (EU) 2018/1725 and Directive (EU) 2016/680, all the following conditions must be met in order for such processing to occur:
+(a) the bias detection and correction cannot be effectively fulfilled by processing other data, including synthetic or anonymised data;
+(b) the special categories of personal data are subject to technical limitations on the re-use of the personal data, and state-of-the-art security and privacy-preserving measures, including pseudonymisation;
+(c) the special categories of personal data are subject to measures to ensure that the personal data processed are secured, protected, subject to suitable safeguards, including strict controls and documentation of the access, to avoid misuse and ensure that only authorised persons have access to those personal data with appropriate confidentiality obligations;
+(d) the special categories of personal data are not to be transmitted, transferred or otherwise accessed by other parties;
+(e) the special categories of personal data are deleted once the bias has been corrected or the personal data has reached the end of its retention period, whichever comes first;
+(f) the records of processing activities pursuant to Regulations (EU) 2016/679 and (EU) 2018/1725 and Directive (EU) 2016/680 include the reasons why the processing of special categories of personal data was strictly necessary to detect and correct biases, and why that objective could not be achieved by processing other data.
+6. For the development of high-risk AI systems not using techniques involving the training of AI models, paragraphs 2 to 5 apply only to the testing data sets.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The technical documentation of a high-risk AI system shall be drawn up before that system is placed on the market or put into service and shall be kept up-to date.
+The technical documentation shall be drawn up in such a way as to demonstrate that the high-risk AI system complies with the requirements set out in this Section and to provide national competent authorities and notified bodies with the necessary information in a clear and comprehensive form to assess the compliance of the AI system with those requirements. It shall contain, at a minimum, the elements set out in Annex IV. SMEs, including start-ups, may provide the elements of the technical documentation specified in Annex IV in a simplified manner. To that end, the Commission shall establish a simplified technical documentation form targeted at the needs of small and microenterprises. Where an SME, including a start-up, opts to provide the information required in Annex IV in a simplified manner, it shall use the form referred to in this paragraph. Notified bodies shall accept the form for the purposes of the conformity assessment.
+2. Where a high-risk AI system related to a product covered by the Union harmonisation legislation listed in Section A of Annex I is placed on the market or put into service, a single set of technical documentation shall be drawn up containing all the information set out in paragraph 1, as well as the information required under those legal acts.
+3. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annex IV, where necessary, to ensure that, in light of technical progress, the technical documentation provides all the information necessary to assess the compliance of the system with the requirements set out in this Section.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annex IV, where necessary, to ensure that, in light of technical progress, the technical documentation provides all the information necessary to assess the compliance of the system with the requirements set out in this Section.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The technical documentation referred to in Article 11(1) shall contain at least the following information, as applicable to the relevant AI system:
+1. A general description of the AI system including:
+(a) its intended purpose, the name of the provider and the version of the system reflecting its relation to previous versions;
+(b) how the AI system interacts with, or can be used to interact with, hardware or software, including with other AI systems, that are not part of the AI system itself, where applicable;
+(c) the versions of relevant software or firmware, and any requirements related to version updates;
+(d) the description of all the forms in which the AI system is placed on the market or put into service, such as software packages embedded into hardware, downloads, or APIs;
+(e) the description of the hardware on which the AI system is intended to run;
+(f) where the AI system is a component of products, photographs or illustrations showing external features, the marking and internal layout of those products;
+(g) a basic description of the user-interface provided to the deployer;
+(h) instructions for use for the deployer, and a basic description of the user-interface provided to the deployer, where applicable;
+2. A detailed description of the elements of the AI system and of the process for its development, including:
+(a) the methods and steps performed for the development of the AI system, including, where relevant, recourse to pre-trained systems or tools provided by third parties and how those were used, integrated or modified by the provider;
+(b) the design specifications of the system, namely the general logic of the AI system and of the algorithms; the key design choices including the rationale and assumptions made, including with regard to persons or groups of persons in respect of who, the system is intended to be used; the main classification choices; what the system is designed to optimise for, and the relevance of the different parameters; the description of the expected output and output quality of the system; the decisions about any possible trade-off made regarding the technical solutions adopted to comply with the requirements set out in Chapter III, Section 2;
+(c) the description of the system architecture explaining how software components build on or feed into each other and integrate into the overall processing; the computational resources used to develop, train, test and validate the AI system;
+(d) where relevant, the data requirements in terms of datasheets describing the training methodologies and techniques and the training data sets used, including a general description of these data sets, information about their provenance, scope and main characteristics; how the data was obtained and selected; labelling procedures (e.g. for supervised learning), data cleaning methodologies (e.g. outliers detection);
+(e) assessment of the human oversight measures needed in accordance with Article 14, including an assessment of the technical measures needed to facilitate the interpretation of the outputs of AI systems by the deployers, in accordance with Article 13(3), point (d);
+(f) where applicable, a detailed description of pre-determined changes to the AI system and its performance, together with all the relevant information related to the technical solutions adopted to ensure continuous compliance of the AI system with the relevant requirements set out in Chapter III, Section 2;
+(g) the validation and testing procedures used, including information about the validation and testing data used and their main characteristics; metrics used to measure accuracy, robustness and compliance with other relevant requirements set out in Chapter III, Section 2, as well as potentially discriminatory impacts; test logs and all test reports dated and signed by the responsible persons, including with regard to pre-determined changes as referred to under point (f);
+(h) cybersecurity measures put in place;
+3. Detailed information about the monitoring, functioning and control of the AI system, in particular with regard to: its capabilities and limitations in performance, including the degrees of accuracy for specific persons or groups of persons on which the system is intended to be used and the overall expected level of accuracy in relation to its intended purpose; the foreseeable unintended outcomes and sources of risks to health and safety, fundamental rights and discrimination in view of the intended purpose of the AI system; the human oversight measures needed in accordance with Article 14, including the technical measures put in place to facilitate the interpretation of the outputs of AI systems by the deployers; specifications on input data, as appropriate;
+4. A description of the appropriateness of the performance metrics for the specific AI system;
+5. A detailed description of the risk management system in accordance with Article 9;
+6. A description of relevant changes made by the provider to the system through its lifecycle;
+7. A list of the harmonised standards applied in full or in part the references of which have been published in the Official Journal of the European Union; where no such harmonised standards have been applied, a detailed description of the solutions adopted to meet the requirements set out in Chapter III, Section 2, including a list of other relevant standards and technical specifications applied;
+8. A copy of the EU declaration of conformity referred to in Article 47;
+9. A detailed description of the system in place to evaluate the AI system performance in the post-market phase in accordance with Article 72, including the post-market monitoring plan referred to in Article 72(3).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall technically allow for the automatic recording of events (logs) over the lifetime of the system.
+2. In order to ensure a level of traceability of the functioning of a high-risk AI system that is appropriate to the intended purpose of the system, logging capabilities shall enable the recording of events relevant for:
+(a) identifying situations that may result in the high-risk AI system presenting a risk within the meaning of Article 79(1) or in a substantial modification;
+(b) facilitating the post-market monitoring referred to in Article 72; and
+(c) monitoring the operation of high-risk AI systems referred to in Article 26(5).
+3. For high-risk AI systems referred to in point 1 (a), of Annex III, the logging capabilities shall provide, at a minimum:
+(a) recording of the period of each use of the system (start date and time and end date and time of each use);
+(b) the reference database against which input data has been checked by the system;
+(c) the input data for which the search has led to a match;
+(d) the identification of the natural persons involved in the verification of the results, as referred to in Article 14(5).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. For high-risk AI systems referred to in point 1 (a), of Annex III, the logging capabilities shall provide, at a minimum:
+(a) recording of the period of each use of the system (start date and time and end date and time of each use);
+(b) the reference database against which input data has been checked by the system;
+(c) the input data for which the search has led to a match;
+(d) the identification of the natural persons involved in the verification of the results, as referred to in Article 14(5).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall be designed and developed in such a way as to ensure that their operation is sufficiently transparent to enable deployers to interpret a system’s output and use it appropriately. An appropriate type and degree of transparency shall be ensured with a view to achieving compliance with the relevant obligations of the provider and deployer set out in Section 3.
+2. High-risk AI systems shall be accompanied by instructions for use in an appropriate digital format or otherwise that include concise, complete, correct and clear information that is relevant, accessible and comprehensible to deployers.
+3. The instructions for use shall contain at least the following information:
+(a) the identity and the contact details of the provider and, where applicable, of its authorised representative;
+(b) the characteristics, capabilities and limitations of performance of the high-risk AI system, including:
+(i) its intended purpose;
+(ii) the level of accuracy, including its metrics, robustness and cybersecurity referred to in Article 15 against which the high-risk AI system has been tested and validated and which can be expected, and any known and foreseeable circumstances that may have an impact on that expected level of accuracy, robustness and cybersecurity;
+(iii) any known or foreseeable circumstance, related to the use of the high-risk AI system in accordance with its intended purpose or under conditions of reasonably foreseeable misuse, which may lead to risks to the health and safety or fundamental rights referred to in Article 9(2);
+(iv) where applicable, the technical capabilities and characteristics of the high-risk AI system to provide information that is relevant to explain its output;
+(v) when appropriate, its performance regarding specific persons or groups of persons on which the system is intended to be used;
+(vi) when appropriate, specifications for the input data, or any other relevant information in terms of the training, validation and testing data sets used, taking into account the intended purpose of the high-risk AI system;
+(vii) where applicable, information to enable deployers to interpret the output of the high-risk AI system and use it appropriately;
+(c) the changes to the high-risk AI system and its performance which have been pre-determined by the provider at the moment of the initial conformity assessment, if any;
+(d) the human oversight measures referred to in Article 14, including the technical measures put in place to facilitate the interpretation of the outputs of the high-risk AI systems by the deployers;
+(e) the computational and hardware resources needed, the expected lifetime of the high-risk AI system and any necessary maintenance and care measures, including their frequency, to ensure the proper functioning of that AI system, including as regards software updates;
+(f) where relevant, a description of the mechanisms included within the high-risk AI system that allows deployers to properly collect, store and interpret the logs in accordance with Article 12.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The instructions for use shall contain at least the following information:
+(a) the identity and the contact details of the provider and, where applicable, of its authorised representative;
+(b) the characteristics, capabilities and limitations of performance of the high-risk AI system, including:
+(i) its intended purpose;
+(ii) the level of accuracy, including its metrics, robustness and cybersecurity referred to in Article 15 against which the high-risk AI system has been tested and validated and which can be expected, and any known and foreseeable circumstances that may have an impact on that expected level of accuracy, robustness and cybersecurity;
+(iii) any known or foreseeable circumstance, related to the use of the high-risk AI system in accordance with its intended purpose or under conditions of reasonably foreseeable misuse, which may lead to risks to the health and safety or fundamental rights referred to in Article 9(2);
+(iv) where applicable, the technical capabilities and characteristics of the high-risk AI system to provide information that is relevant to explain its output;
+(v) when appropriate, its performance regarding specific persons or groups of persons on which the system is intended to be used;
+(vi) when appropriate, specifications for the input data, or any other relevant information in terms of the training, validation and testing data sets used, taking into account the intended purpose of the high-risk AI system;
+(vii) where applicable, information to enable deployers to interpret the output of the high-risk AI system and use it appropriately;
+(c) the changes to the high-risk AI system and its performance which have been pre-determined by the provider at the moment of the initial conformity assessment, if any;
+(d) the human oversight measures referred to in Article 14, including the technical measures put in place to facilitate the interpretation of the outputs of the high-risk AI systems by the deployers;
+(e) the computational and hardware resources needed, the expected lifetime of the high-risk AI system and any necessary maintenance and care measures, including their frequency, to ensure the proper functioning of that AI system, including as regards software updates;
+(f) where relevant, a description of the mechanisms included within the high-risk AI system that allows deployers to properly collect, store and interpret the logs in accordance with Article 12.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall be designed and developed in such a way, including with appropriate human-machine interface tools, that they can be effectively overseen by natural persons during the period in which they are in use.
+2. Human oversight shall aim to prevent or minimise the risks to health, safety or fundamental rights that may emerge when a high-risk AI system is used in accordance with its intended purpose or under conditions of reasonably foreseeable misuse, in particular where such risks persist despite the application of other requirements set out in this Section.
+3. The oversight measures shall be commensurate with the risks, level of autonomy and context of use of the high-risk AI system, and shall be ensured through either one or both of the following types of measures:
+(a) measures identified and built, when technically feasible, into the high-risk AI system by the provider before it is placed on the market or put into service;
+(b) measures identified by the provider before placing the high-risk AI system on the market or putting it into service and that are appropriate to be implemented by the deployer.
+4. For the purpose of implementing paragraphs 1, 2 and 3, the high-risk AI system shall be provided to the deployer in such a way that natural persons to whom human oversight is assigned are enabled, as appropriate and proportionate:
+(a) to properly understand the relevant capacities and limitations of the high-risk AI system and be able to duly monitor its operation, including in view of detecting and addressing anomalies, dysfunctions and unexpected performance;
+(b) to remain aware of the possible tendency of automatically relying or over-relying on the output produced by a high-risk AI system (automation bias), in particular for high-risk AI systems used to provide information or recommendations for decisions to be taken by natural persons;
+(c) to correctly interpret the high-risk AI system’s output, taking into account, for example, the interpretation tools and methods available;
+(d) to decide, in any particular situation, not to use the high-risk AI system or to otherwise disregard, override or reverse the output of the high-risk AI system;
+(e) to intervene in the operation of the high-risk AI system or interrupt the system through a ‘stop’ button or a similar procedure that allows the system to come to a halt in a safe state.
+5. For high-risk AI systems referred to in point 1(a) of Annex III, the measures referred to in paragraph 3 of this Article shall be such as to ensure that, in addition, no action or decision is taken by the deployer on the basis of the identification resulting from the system unless that identification has been separately verified and confirmed by at least two natural persons with the necessary competence, training and authority.
+The requirement for a separate verification by at least two natural persons shall not apply to high-risk AI systems used for the purposes of law enforcement, migration, border control or asylum, where Union or national law considers the application of this requirement to be disproportionate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. For high-risk AI systems referred to in point 1(a) of Annex III, the measures referred to in paragraph 3 of this Article shall be such as to ensure that, in addition, no action or decision is taken by the deployer on the basis of the identification resulting from the system unless that identification has been separately verified and confirmed by at least two natural persons with the necessary competence, training and authority.
+The requirement for a separate verification by at least two natural persons shall not apply to high-risk AI systems used for the purposes of law enforcement, migration, border control or asylum, where Union or national law considers the application of this requirement to be disproportionate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall be designed and developed in such a way that they achieve an appropriate level of accuracy, robustness, and cybersecurity, and that they perform consistently in those respects throughout their lifecycle.
+2. To address the technical aspects of how to measure the appropriate levels of accuracy and robustness set out in paragraph 1 and any other relevant performance metrics, the Commission shall, in cooperation with relevant stakeholders and organisations such as metrology and benchmarking authorities, encourage, as appropriate, the development of benchmarks and measurement methodologies.
+3. The levels of accuracy and the relevant accuracy metrics of high-risk AI systems shall be declared in the accompanying instructions of use.
+4. High-risk AI systems shall be as resilient as possible regarding errors, faults or inconsistencies that may occur within the system or the environment in which the system operates, in particular due to their interaction with natural persons or other systems. Technical and organisational measures shall be taken in this regard.
+The robustness of high-risk AI systems may be achieved through technical redundancy solutions, which may include backup or fail-safe plans.
+High-risk AI systems that continue to learn after being placed on the market or put into service shall be developed in such a way as to eliminate or reduce as far as possible the risk of possibly biased outputs influencing input for future operations (feedback loops), and as to ensure that any such feedback loops are duly addressed with appropriate mitigation measures.
+5. High-risk AI systems shall be resilient against attempts by unauthorised third parties to alter their use, outputs or performance by exploiting system vulnerabilities.
+The technical solutions aiming to ensure the cybersecurity of high-risk AI systems shall be appropriate to the relevant circumstances and the risks.
+The technical solutions to address AI specific vulnerabilities shall include, where appropriate, measures to prevent, detect, respond to, resolve and control for attacks trying to manipulate the training data set (data poisoning), or pre-trained components used in training (model poisoning), inputs designed to cause the AI model to make a mistake (adversarial examples or model evasion), confidentiality attacks or model flaws.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. High-risk AI systems shall be resilient against attempts by unauthorised third parties to alter their use, outputs or performance by exploiting system vulnerabilities.
+The technical solutions aiming to ensure the cybersecurity of high-risk AI systems shall be appropriate to the relevant circumstances and the risks.
+The technical solutions to address AI specific vulnerabilities shall include, where appropriate, measures to prevent, detect, respond to, resolve and control for attacks trying to manipulate the training data set (data poisoning), or pre-trained components used in training (model poisoning), inputs designed to cause the AI model to make a mistake (adversarial examples or model evasion), confidentiality attacks or model flaws.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers of high-risk AI systems shall put a quality management system in place that ensures compliance with this Regulation. That system shall be documented in a systematic and orderly manner in the form of written policies, procedures and instructions, and shall include at least the following aspects:
+(a) a strategy for regulatory compliance, including compliance with conformity assessment procedures and procedures for the management of modifications to the high-risk AI system;
+(b) techniques, procedures and systematic actions to be used for the design, design control and design verification of the high-risk AI system;
+(c) techniques, procedures and systematic actions to be used for the development, quality control and quality assurance of the high-risk AI system;
+(d) examination, test and validation procedures to be carried out before, during and after the development of the high-risk AI system, and the frequency with which they have to be carried out;
+(e) technical specifications, including standards, to be applied and, where the relevant harmonised standards are not applied in full or do not cover all of the relevant requirements set out in Section 2, the means to be used to ensure that the high-risk AI system complies with those requirements;
+(f) systems and procedures for data management, including data acquisition, data collection, data analysis, data labelling, data storage, data filtration, data mining, data aggregation, data retention and any other operation regarding the data that is performed before and for the purpose of the placing on the market or the putting into service of high-risk AI systems;
+(g) the risk management system referred to in Article 9;
+(h) the setting-up, implementation and maintenance of a post-market monitoring system, in accordance with Article 72;
+(i) procedures related to the reporting of a serious incident in accordance with Article 73;
+(j) the handling of communication with national competent authorities, other relevant authorities, including those providing or supporting the access to data, notified bodies, other operators, customers or other interested parties;
+(k) systems and procedures for record-keeping of all relevant documentation and information;
+(l) resource management, including security-of-supply related measures;
+(m) an accountability framework setting out the responsibilities of the management and other staff with regard to all the aspects listed in this paragraph.
+2. The implementation of the aspects referred to in paragraph 1 shall be proportionate to the size of the provider’s organisation. Providers shall, in any event, respect the degree of rigour and the level of protection required to ensure the compliance of their high-risk AI systems with this Regulation.
+3. Providers of high-risk AI systems that are subject to obligations regarding quality management systems or an equivalent function under relevant sectoral Union law may include the aspects listed in paragraph 1 as part of the quality management systems pursuant to that law.
+4. For providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law, the obligation to put in place a quality management system, with the exception of paragraph 1, points (g), (h) and (i) of this Article, shall be deemed to be fulfilled by complying with the rules on internal governance arrangements or processes pursuant to the relevant Union financial services law. To that end, any harmonised standards referred to in Article 40 shall be taken into account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. For providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law, the obligation to put in place a quality management system, with the exception of paragraph 1, points (g), (h) and (i) of this Article, shall be deemed to be fulfilled by complying with the rules on internal governance arrangements or processes pursuant to the relevant Union financial services law. To that end, any harmonised standards referred to in Article 40 shall be taken into account.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The provider shall, for a period ending 10 years after the high-risk AI system has been placed on the market or put into service, keep at the disposal of the national competent authorities:
+(a) the technical documentation referred to in Article 11;
+(b) the documentation concerning the quality management system referred to in Article 17;
+(c) the documentation concerning the changes approved by notified bodies, where applicable;
+(d) the decisions and other documents issued by the notified bodies, where applicable;
+(e) the EU declaration of conformity referred to in Article 47.
+2. Each Member State shall determine conditions under which the documentation referred to in paragraph 1 remains at the disposal of the national competent authorities for the period indicated in that paragraph for the cases when a provider or its authorised representative established on its territory goes bankrupt or ceases its activity prior to the end of that period.
+3. Providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law shall maintain the technical documentation as part of the documentation kept under the relevant Union financial services law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law shall maintain the technical documentation as part of the documentation kept under the relevant Union financial services law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers of high-risk AI systems shall keep the logs referred to in Article 12(1), automatically generated by their high-risk AI systems, to the extent such logs are under their control. Without prejudice to applicable Union or national law, the logs shall be kept for a period appropriate to the intended purpose of the high-risk AI system, of at least six months, unless provided otherwise in the applicable Union or national law, in particular in Union law on the protection of personal data.
+2. Providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law shall maintain the logs automatically generated by their high-risk AI systems as part of the documentation kept under the relevant financial services law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Providers that are financial institutions subject to requirements regarding their internal governance, arrangements or processes under Union financial services law shall maintain the logs automatically generated by their high-risk AI systems as part of the documentation kept under the relevant financial services law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers of high-risk AI systems which consider or have reason to consider that a high-risk AI system that they have placed on the market or put into service is not in conformity with this Regulation shall immediately take the necessary corrective actions to bring that system into conformity, to withdraw it, to disable it, or to recall it, as appropriate. They shall inform the distributors of the high-risk AI system concerned and, where applicable, the deployers, the authorised representative and importers accordingly.
+2. Where the high-risk AI system presents a risk within the meaning of Article 79(1) and the provider becomes aware of that risk, it shall immediately investigate the causes, in collaboration with the reporting deployer, where applicable, and inform the market surveillance authorities competent for the high-risk AI system concerned and, where applicable, the notified body that issued a certificate for that high-risk AI system in accordance with Article 44, in particular, of the nature of the non-compliance and of any relevant corrective action taken.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Where the high-risk AI system presents a risk within the meaning of Article 79(1) and the provider becomes aware of that risk, it shall immediately investigate the causes, in collaboration with the reporting deployer, where applicable, and inform the market surveillance authorities competent for the high-risk AI system concerned and, where applicable, the notified body that issued a certificate for that high-risk AI system in accordance with Article 44, in particular, of the nature of the non-compliance and of any relevant corrective action taken.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. For high-risk AI systems listed in point 1 of Annex III, where, in demonstrating the compliance of a high-risk AI system with the requirements set out in Section 2, the provider has applied harmonised standards referred to in Article 40, or, where applicable, common specifications referred to in Article 41, the provider shall opt for one of the following conformity assessment procedures based on:
+(a) the internal control referred to in Annex VI; or
+(b) the assessment of the quality management system and the assessment of the technical documentation, with the involvement of a notified body, referred to in Annex VII.
+In demonstrating the compliance of a high-risk AI system with the requirements set out in Section 2, the provider shall follow the conformity assessment procedure set out in Annex VII where:
+(a) harmonised standards referred to in Article 40 do not exist, and common specifications referred to in Article 41 are not available;
+(b) the provider has not applied, or has applied only part of, the harmonised standard;
+(c) the common specifications referred to in point (a) exist, but the provider has not applied them;
+(d) one or more of the harmonised standards referred to in point (a) has been published with a restriction, and only on the part of the standard that was restricted.
+For the purposes of the conformity assessment procedure referred to in Annex VII, the provider may choose any of the notified bodies. However, where the high-risk AI system is intended to be put into service by law enforcement, immigration or asylum authorities or by Union institutions, bodies, offices or agencies, the market surveillance authority referred to in Article 74(8) or (9), as applicable, shall act as a notified body.
+2. For high-risk AI systems referred to in points 2 to 8 of Annex III, providers shall follow the conformity assessment procedure based on internal control as referred to in Annex VI, which does not provide for the involvement of a notified body.
+3. For high-risk AI systems covered by the Union harmonisation legislation listed in Section A of Annex I, the provider shall follow the relevant conformity assessment procedure as required under those legal acts. The requirements set out in Section 2 of this Chapter shall apply to those high-risk AI systems and shall be part of that assessment. Points 4.3., 4.4., 4.5. and the fifth paragraph of point 4.6 of Annex VII shall also apply.
+For the purposes of that assessment, notified bodies which have been notified under those legal acts shall be entitled to control the conformity of the high-risk AI systems with the requirements set out in Section 2, provided that the compliance of those notified bodies with requirements laid down in Article 31(4), (5), (10) and (11) has been assessed in the context of the notification procedure under those legal acts.
+Where a legal act listed in Section A of Annex I enables the product manufacturer to opt out from a third-party conformity assessment, provided that that manufacturer has applied all harmonised standards covering all the relevant requirements, that manufacturer may use that option only if it has also applied harmonised standards or, where applicable, common specifications referred to in Article 41, covering all requirements set out in Section 2 of this Chapter.
+4. High-risk AI systems that have already been subject to a conformity assessment procedure shall undergo a new conformity assessment procedure in the event of a substantial modification, regardless of whether the modified system is intended to be further distributed or continues to be used by the current deployer.
+For high-risk AI systems that continue to learn after being placed on the market or put into service, changes to the high-risk AI system and its performance that have been pre-determined by the provider at the moment of the initial conformity assessment and are part of the information contained in the technical documentation referred to in point 2(f) of Annex IV, shall not constitute a substantial modification.
+5. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annexes VI and VII by updating them in light of technical progress.
+6. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend paragraphs 1 and 2 of this Article in order to subject high-risk AI systems referred to in points 2 to 8 of Annex III to the conformity assessment procedure referred to in Annex VII or parts thereof. The Commission shall adopt such delegated acts taking into account the effectiveness of the conformity assessment procedure based on internal control referred to in Annex VI in preventing or minimising the risks to health and safety and protection of fundamental rights posed by such systems, as well as the availability of adequate capacities and resources among notified bodies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend paragraphs 1 and 2 of this Article in order to subject high-risk AI systems referred to in points 2 to 8 of Annex III to the conformity assessment procedure referred to in Annex VII or parts thereof. The Commission shall adopt such delegated acts taking into account the effectiveness of the conformity assessment procedure based on internal control referred to in Annex VI in preventing or minimising the risks to health and safety and protection of fundamental rights posed by such systems, as well as the availability of adequate capacities and resources among notified bodies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The conformity assessment procedure based on internal control is the conformity assessment procedure based on points 2, 3 and 4.
+2. The provider verifies that the established quality management system is in compliance with the requirements of Article 17.
+3. The provider examines the information contained in the technical documentation in order to assess the compliance of the AI system with the relevant essential requirements set out in Chapter III, Section 2.
+4. The provider also verifies that the design and development process of the AI system and its post-market monitoring as referred to in Article 72 is consistent with the technical documentation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. The provider also verifies that the design and development process of the AI system and its post-market monitoring as referred to in Article 72 is consistent with the technical documentation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. The provider shall draw up a written machine readable, physical or electronically signed EU declaration of conformity for each high-risk AI system, and keep it at the disposal of the national competent authorities for 10 years after the high-risk AI system has been placed on the market or put into service. The EU declaration of conformity shall identify the high-risk AI system for which it has been drawn up. A copy of the EU declaration of conformity shall be submitted to the relevant national competent authorities upon request.
@@ -352,6 +535,11 @@
 3. Where high-risk AI systems are subject to other Union harmonisation legislation which also requires an EU declaration of conformity, a single EU declaration of conformity shall be drawn up in respect of all Union law applicable to the high-risk AI system. The declaration shall contain all the information required to identify the Union harmonisation legislation to which the declaration relates.
 4. By drawing up the EU declaration of conformity, the provider shall assume responsibility for compliance with the requirements set out in Section 2. The provider shall keep the EU declaration of conformity up-to-date as appropriate.
 5. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annex V by updating the content of the EU declaration of conformity set out in that Annex, in order to introduce elements that become necessary in light of technical progress.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annex V by updating the content of the EU declaration of conformity set out in that Annex, in order to introduce elements that become necessary in light of technical progress.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. The CE marking shall be subject to the general principles set out in Article 30 of Regulation (EC) No 765/2008.
@@ -359,6 +547,11 @@
 3. The CE marking shall be affixed visibly, legibly and indelibly for high-risk AI systems. Where that is not possible or not warranted on account of the nature of the high-risk AI system, it shall be affixed to the packaging or to the accompanying documentation, as appropriate.
 4. Where applicable, the CE marking shall be followed by the identification number of the notified body responsible for the conformity assessment procedures set out in Article 43. The identification number of the notified body shall be affixed by the body itself or, under its instructions, by the provider or by the provider’s authorised representative. The identification number shall also be indicated in any promotional material which mentions that the high-risk AI system fulfils the requirements for CE marking.
 5. Where high-risk AI systems are subject to other Union law which also provides for the affixing of the CE marking, the CE marking shall indicate that the high-risk AI system also fulfil the requirements of that other law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. Where high-risk AI systems are subject to other Union law which also provides for the affixing of the CE marking, the CE marking shall indicate that the high-risk AI system also fulfil the requirements of that other law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>1. Before placing on the market or putting into service a high-risk AI system listed in Annex III, with the exception of high-risk AI systems referred to in point 2 of Annex III, the provider or, where applicable, the authorised representative shall register themselves and their system in the EU database referred to in Article 71.
@@ -371,47 +564,407 @@
 (d) points 1, 2, 3 and 5, of Annex IX.
 Only the Commission and national authorities referred to in Article 74(8) shall have access to the respective restricted sections of the EU database listed in the first subparagraph of this paragraph.
 5. High-risk AI systems referred to in point 2 of Annex III shall be registered at national level.</t>
-  </si>
-  <si>
-    <t>indicate on the high-risk AI system or, where that is not possible, on its packaging or its accompanying documentation, as applicable, their name, registered trade name or registered trade mark, the address at which they can be contacted</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>heading</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>content</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1. Providers shall establish and document a post-market monitoring system in a manner that is proportionate to the nature of the AI technologies and the risks of the high-risk AI system.
-2. The post-market monitoring system shall actively and systematically collect, document and analyse relevant data which may be provided by deployers or which may be collected through other sources on the performance of high-risk AI systems throughout their lifetime, and which allow the provider to evaluate the continuous compliance of AI systems with the requirements set out in Chapter III, Section 2. Where relevant, post-market monitoring shall include an analysis of the interaction with other AI systems. This obligation shall not cover sensitive operational data of deployers which are law-enforcement authorities.
-3. The post-market monitoring system shall be based on a post-market monitoring plan. The post-market monitoring plan shall be part of the technical documentation referred to in Annex IV. The Commission shall adopt an implementing act laying down detailed provisions establishing a template for the post-market monitoring plan and the list of elements to be included in the plan by 2 February 2026. That implementing act shall be adopted in accordance with the examination procedure referred to in Article 98(2).
-4. For high-risk AI systems covered by the Union harmonisation legislation listed in Section A of Annex I, where a post-market monitoring system and plan are already established under that legislation, in order to ensure consistency, avoid duplications and minimise additional burdens, providers shall have a choice of integrating, as appropriate, the necessary elements described in paragraphs 1, 2 and 3 using the template referred in paragraph 3 into systems and plans already existing under that legislation, provided that it achieves an equivalent level of protection.
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. High-risk AI systems referred to in point 2 of Annex III shall be registered at national level.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. For high-risk AI systems covered by the Union harmonisation legislation listed in Section A of Annex I, where a post-market monitoring system and plan are already established under that legislation, in order to ensure consistency, avoid duplications and minimise additional burdens, providers shall have a choice of integrating, as appropriate, the necessary elements described in paragraphs 1, 2 and 3 using the template referred in paragraph 3 into systems and plans already existing under that legislation, provided that it achieves an equivalent level of protection.
 The first subparagraph of this paragraph shall also apply to high-risk AI systems referred to in point 5 of Annex III placed on the market or put into service by financial institutions that are subject to requirements under Union financial services law regarding their internal governance, arrangements or processes.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. A risk management system shall be established, implemented, documented and maintained in relation to high-risk AI systems.
-2. The risk management system shall be understood as a continuous iterative process planned and run throughout the entire lifecycle of a high-risk AI system, requiring regular systematic review and updating. It shall comprise the following steps:
+    <t>paragraph</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10. For providers of high-risk AI systems that are subject to requirements regarding internal risk management processes under other relevant provisions of Union law, the aspects provided in paragraphs 1 to 9 may be part of, or combined with, the risk management procedures established pursuant to that law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. For the development of high-risk AI systems not using techniques involving the training of AI models, paragraphs 2 to 5 apply only to the testing data sets.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. A detailed description of the system in place to evaluate the AI system performance in the post-market phase in accordance with Article 72, including the post-market monitoring plan referred to in Article 72(3).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. A risk management system shall be established, implemented, documented and maintained in relation to high-risk AI systems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. The risk management system shall be understood as a continuous iterative process planned and run throughout the entire lifecycle of a high-risk AI system, requiring regular systematic review and updating. It shall comprise the following steps:
 (a) the identification and analysis of the known and the reasonably foreseeable risks that the high-risk AI system can pose to health, safety or fundamental rights when the high-risk AI system is used in accordance with its intended purpose;
 (b) the estimation and evaluation of the risks that may emerge when the high-risk AI system is used in accordance with its intended purpose, and under conditions of reasonably foreseeable misuse;
 (c) the evaluation of other risks possibly arising, based on the analysis of data gathered from the post-market monitoring system referred to in Article 72;
-(d) the adoption of appropriate and targeted risk management measures designed to address the risks identified pursuant to point (a).
-3. The risks referred to in this Article shall concern only those which may be reasonably mitigated or eliminated through the development or design of the high-risk AI system, or the provision of adequate technical information.
-4. The risk management measures referred to in paragraph 2, point (d), shall give due consideration to the effects and possible interaction resulting from the combined application of the requirements set out in this Section, with a view to minimising risks more effectively while achieving an appropriate balance in implementing the measures to fulfil those requirements.
-5. The risk management measures referred to in paragraph 2, point (d), shall be such that the relevant residual risk associated with each hazard, as well as the overall residual risk of the high-risk AI systems is judged to be acceptable.
+(d) the adoption of appropriate and targeted risk management measures designed to address the risks identified pursuant to point (a).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The risks referred to in this Article shall concern only those which may be reasonably mitigated or eliminated through the development or design of the high-risk AI system, or the provision of adequate technical information.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. The risk management measures referred to in paragraph 2, point (d), shall give due consideration to the effects and possible interaction resulting from the combined application of the requirements set out in this Section, with a view to minimising risks more effectively while achieving an appropriate balance in implementing the measures to fulfil those requirements.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. The risk management measures referred to in paragraph 2, point (d), shall be such that the relevant residual risk associated with each hazard, as well as the overall residual risk of the high-risk AI systems is judged to be acceptable.
 In identifying the most appropriate risk management measures, the following shall be ensured:
 (a) elimination or reduction of risks identified and evaluated pursuant to paragraph 2 in as far as technically feasible through adequate design and development of the high-risk AI system;
 (b) where appropriate, implementation of adequate mitigation and control measures addressing risks that cannot be eliminated;
 (c) provision of information required pursuant to Article 13 and, where appropriate, training to deployers.
-With a view to eliminating or reducing risks related to the use of the high-risk AI system, due consideration shall be given to the technical knowledge, experience, education, the training to be expected by the deployer, and the presumable context in which the system is intended to be used.
-6. High-risk AI systems shall be tested for the purpose of identifying the most appropriate and targeted risk management measures. Testing shall ensure that high-risk AI systems perform consistently for their intended purpose and that they are in compliance with the requirements set out in this Section.
-7. Testing procedures may include testing in real-world conditions in accordance with Article 60.
-8. The testing of high-risk AI systems shall be performed, as appropriate, at any time throughout the development process, and, in any event, prior to their being placed on the market or put into service. Testing shall be carried out against prior defined metrics and probabilistic thresholds that are appropriate to the intended purpose of the high-risk AI system.
-9. When implementing the risk management system as provided for in paragraphs 1 to 7, providers shall give consideration to whether in view of its intended purpose the high-risk AI system is likely to have an adverse impact on persons under the age of 18 and, as appropriate, other vulnerable groups.
-10. For providers of high-risk AI systems that are subject to requirements regarding internal risk management processes under other relevant provisions of Union law, the aspects provided in paragraphs 1 to 9 may be part of, or combined with, the risk management procedures established pursuant to that law.</t>
+With a view to eliminating or reducing risks related to the use of the high-risk AI system, due consideration shall be given to the technical knowledge, experience, education, the training to be expected by the deployer, and the presumable context in which the system is intended to be used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. High-risk AI systems shall be tested for the purpose of identifying the most appropriate and targeted risk management measures. Testing shall ensure that high-risk AI systems perform consistently for their intended purpose and that they are in compliance with the requirements set out in this Section.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. Testing procedures may include testing in real-world conditions in accordance with Article 60.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. The testing of high-risk AI systems shall be performed, as appropriate, at any time throughout the development process, and, in any event, prior to their being placed on the market or put into service. Testing shall be carried out against prior defined metrics and probabilistic thresholds that are appropriate to the intended purpose of the high-risk AI system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. When implementing the risk management system as provided for in paragraphs 1 to 7, providers shall give consideration to whether in view of its intended purpose the high-risk AI system is likely to have an adverse impact on persons under the age of 18 and, as appropriate, other vulnerable groups.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems which make use of techniques involving the training of AI models with data shall be developed on the basis of training, validation and testing data sets that meet the quality criteria referred to in paragraphs 2 to 5 whenever such data sets are used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. To the extent that it is strictly necessary for the purpose of ensuring bias detection and correction in relation to the high-risk AI systems in accordance with paragraph (2), points (f) and (g) of this Article, the providers of such systems may exceptionally process special categories of personal data, subject to appropriate safeguards for the fundamental rights and freedoms of natural persons. In addition to the provisions set out in Regulations (EU) 2016/679 and (EU) 2018/1725 and Directive (EU) 2016/680, all the following conditions must be met in order for such processing to occur:
+(a) the bias detection and correction cannot be effectively fulfilled by processing other data, including synthetic or anonymised data;
+(b) the special categories of personal data are subject to technical limitations on the re-use of the personal data, and state-of-the-art security and privacy-preserving measures, including pseudonymisation;
+(c) the special categories of personal data are subject to measures to ensure that the personal data processed are secured, protected, subject to suitable safeguards, including strict controls and documentation of the access, to avoid misuse and ensure that only authorised persons have access to those personal data with appropriate confidentiality obligations;
+(d) the special categories of personal data are not to be transmitted, transferred or otherwise accessed by other parties;
+(e) the special categories of personal data are deleted once the bias has been corrected or the personal data has reached the end of its retention period, whichever comes first;
+(f) the records of processing activities pursuant to Regulations (EU) 2016/679 and (EU) 2018/1725 and Directive (EU) 2016/680 include the reasons why the processing of special categories of personal data was strictly necessary to detect and correct biases, and why that objective could not be achieved by processing other data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Data sets shall take into account, to the extent required by the intended purpose, the characteristics or elements that are particular to the specific geographical, contextual, behavioural or functional setting within which the high-risk AI system is intended to be used.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Training, validation and testing data sets shall be relevant, sufficiently representative, and to the best extent possible, free of errors and complete in view of the intended purpose. They shall have the appropriate statistical properties, including, where applicable, as regards the persons or groups of persons in relation to whom the high-risk AI system is intended to be used. Those characteristics of the data sets may be met at the level of individual data sets or at the level of a combination thereof.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Training, validation and testing data sets shall be subject to data governance and management practices appropriate for the intended purpose of the high-risk AI system. Those practices shall concern in particular:
+(a) the relevant design choices;
+(b) data collection processes and the origin of data, and in the case of personal data, the original purpose of the data collection;
+(c) relevant data-preparation processing operations, such as annotation, labelling, cleaning, updating, enrichment and aggregation;
+(d) the formulation of assumptions, in particular with respect to the information that the data are supposed to measure and represent;
+(e) an assessment of the availability, quantity and suitability of the data sets that are needed;
+(f) examination in view of possible biases that are likely to affect the health and safety of persons, have a negative impact on fundamental rights or lead to discrimination prohibited under Union law, especially where data outputs influence inputs for future operations;
+(g) appropriate measures to detect, prevent and mitigate possible biases identified according to point (f);
+(h) the identification of relevant data gaps or shortcomings that prevent compliance with this Regulation, and how those gaps and shortcomings can be addressed.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The technical documentation referred to in Article 11(1) shall contain at least the following information, as applicable to the relevant AI system:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. A general description of the AI system including:
+(a) its intended purpose, the name of the provider and the version of the system reflecting its relation to previous versions;
+(b) how the AI system interacts with, or can be used to interact with, hardware or software, including with other AI systems, that are not part of the AI system itself, where applicable;
+(c) the versions of relevant software or firmware, and any requirements related to version updates;
+(d) the description of all the forms in which the AI system is placed on the market or put into service, such as software packages embedded into hardware, downloads, or APIs;
+(e) the description of the hardware on which the AI system is intended to run;
+(f) where the AI system is a component of products, photographs or illustrations showing external features, the marking and internal layout of those products;
+(g) a basic description of the user-interface provided to the deployer;
+(h) instructions for use for the deployer, and a basic description of the user-interface provided to the deployer, where applicable;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. A detailed description of the elements of the AI system and of the process for its development, including:
+(a) the methods and steps performed for the development of the AI system, including, where relevant, recourse to pre-trained systems or tools provided by third parties and how those were used, integrated or modified by the provider;
+(b) the design specifications of the system, namely the general logic of the AI system and of the algorithms; the key design choices including the rationale and assumptions made, including with regard to persons or groups of persons in respect of who, the system is intended to be used; the main classification choices; what the system is designed to optimise for, and the relevance of the different parameters; the description of the expected output and output quality of the system; the decisions about any possible trade-off made regarding the technical solutions adopted to comply with the requirements set out in Chapter III, Section 2;
+(c) the description of the system architecture explaining how software components build on or feed into each other and integrate into the overall processing; the computational resources used to develop, train, test and validate the AI system;
+(d) where relevant, the data requirements in terms of datasheets describing the training methodologies and techniques and the training data sets used, including a general description of these data sets, information about their provenance, scope and main characteristics; how the data was obtained and selected; labelling procedures (e.g. for supervised learning), data cleaning methodologies (e.g. outliers detection);
+(e) assessment of the human oversight measures needed in accordance with Article 14, including an assessment of the technical measures needed to facilitate the interpretation of the outputs of AI systems by the deployers, in accordance with Article 13(3), point (d);
+(f) where applicable, a detailed description of pre-determined changes to the AI system and its performance, together with all the relevant information related to the technical solutions adopted to ensure continuous compliance of the AI system with the relevant requirements set out in Chapter III, Section 2;
+(g) the validation and testing procedures used, including information about the validation and testing data used and their main characteristics; metrics used to measure accuracy, robustness and compliance with other relevant requirements set out in Chapter III, Section 2, as well as potentially discriminatory impacts; test logs and all test reports dated and signed by the responsible persons, including with regard to pre-determined changes as referred to under point (f);
+(h) cybersecurity measures put in place;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Detailed information about the monitoring, functioning and control of the AI system, in particular with regard to: its capabilities and limitations in performance, including the degrees of accuracy for specific persons or groups of persons on which the system is intended to be used and the overall expected level of accuracy in relation to its intended purpose; the foreseeable unintended outcomes and sources of risks to health and safety, fundamental rights and discrimination in view of the intended purpose of the AI system; the human oversight measures needed in accordance with Article 14, including the technical measures put in place to facilitate the interpretation of the outputs of AI systems by the deployers; specifications on input data, as appropriate;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. A description of the appropriateness of the performance metrics for the specific AI system;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. A detailed description of the risk management system in accordance with Article 9;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. A description of relevant changes made by the provider to the system through its lifecycle;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. A list of the harmonised standards applied in full or in part the references of which have been published in the Official Journal of the European Union; where no such harmonised standards have been applied, a detailed description of the solutions adopted to meet the requirements set out in Chapter III, Section 2, including a list of other relevant standards and technical specifications applied;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. A copy of the EU declaration of conformity referred to in Article 47;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. In order to ensure a level of traceability of the functioning of a high-risk AI system that is appropriate to the intended purpose of the system, logging capabilities shall enable the recording of events relevant for:
+(a) identifying situations that may result in the high-risk AI system presenting a risk within the meaning of Article 79(1) or in a substantial modification;
+(b) facilitating the post-market monitoring referred to in Article 72; and
+(c) monitoring the operation of high-risk AI systems referred to in Article 26(5).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall technically allow for the automatic recording of events (logs) over the lifetime of the system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall be designed and developed in such a way as to ensure that their operation is sufficiently transparent to enable deployers to interpret a system’s output and use it appropriately. An appropriate type and degree of transparency shall be ensured with a view to achieving compliance with the relevant obligations of the provider and deployer set out in Section 3.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. High-risk AI systems shall be accompanied by instructions for use in an appropriate digital format or otherwise that include concise, complete, correct and clear information that is relevant, accessible and comprehensible to deployers.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The post-market monitoring system shall be based on a post-market monitoring plan. The post-market monitoring plan shall be part of the technical documentation referred to in Annex IV. The Commission shall adopt an implementing act laying down detailed provisions establishing a template for the post-market monitoring plan and the list of elements to be included in the plan by 2 February 2026. That implementing act shall be adopted in accordance with the examination procedure referred to in Article 98(2).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. The post-market monitoring system shall actively and systematically collect, document and analyse relevant data which may be provided by deployers or which may be collected through other sources on the performance of high-risk AI systems throughout their lifetime, and which allow the provider to evaluate the continuous compliance of AI systems with the requirements set out in Chapter III, Section 2. Where relevant, post-market monitoring shall include an analysis of the interaction with other AI systems. This obligation shall not cover sensitive operational data of deployers which are law-enforcement authorities.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers shall establish and document a post-market monitoring system in a manner that is proportionate to the nature of the AI technologies and the risks of the high-risk AI system.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. For high-risk AI systems referred to in points 1, 6 and 7 of Annex III, in the areas of law enforcement, migration, asylum and border control management, the registration referred to in paragraphs 1, 2 and 3 of this Article shall be in a secure non-public section of the EU database referred to in Article 71 and shall include only the following information, as applicable, referred to in:
+(a) Section A, points 1 to 10, of Annex VIII, with the exception of points 6, 8 and 9;
+(b) Section B, points 1 to 5, and points 8 and 9 of Annex VIII;
+(c) Section C, points 1 to 3, of Annex VIII;
+(d) points 1, 2, 3 and 5, of Annex IX.
+Only the Commission and national authorities referred to in Article 74(8) shall have access to the respective restricted sections of the EU database listed in the first subparagraph of this paragraph.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Before putting into service or using a high-risk AI system listed in Annex III, with the exception of high-risk AI systems listed in point 2 of Annex III, deployers that are public authorities, Union institutions, bodies, offices or agencies or persons acting on their behalf shall register themselves, select the system and register its use in the EU database referred to in Article 71.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Before placing on the market or putting into service an AI system for which the provider has concluded that it is not high-risk according to Article 6(3), that provider or, where applicable, the authorised representative shall register themselves and that system in the EU database referred to in Article 71.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Before placing on the market or putting into service a high-risk AI system listed in Annex III, with the exception of high-risk AI systems referred to in point 2 of Annex III, the provider or, where applicable, the authorised representative shall register themselves and their system in the EU database referred to in Article 71.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The CE marking shall be affixed visibly, legibly and indelibly for high-risk AI systems. Where that is not possible or not warranted on account of the nature of the high-risk AI system, it shall be affixed to the packaging or to the accompanying documentation, as appropriate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. Where applicable, the CE marking shall be followed by the identification number of the notified body responsible for the conformity assessment procedures set out in Article 43. The identification number of the notified body shall be affixed by the body itself or, under its instructions, by the provider or by the provider’s authorised representative. The identification number shall also be indicated in any promotional material which mentions that the high-risk AI system fulfils the requirements for CE marking.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. For high-risk AI systems provided digitally, a digital CE marking shall be used, only if it can easily be accessed via the interface from which that system is accessed or via an easily accessible machine-readable code or other electronic means.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The CE marking shall be subject to the general principles set out in Article 30 of Regulation (EC) No 765/2008.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. By drawing up the EU declaration of conformity, the provider shall assume responsibility for compliance with the requirements set out in Section 2. The provider shall keep the EU declaration of conformity up-to-date as appropriate.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Where high-risk AI systems are subject to other Union harmonisation legislation which also requires an EU declaration of conformity, a single EU declaration of conformity shall be drawn up in respect of all Union law applicable to the high-risk AI system. The declaration shall contain all the information required to identify the Union harmonisation legislation to which the declaration relates.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. The EU declaration of conformity shall state that the high-risk AI system concerned meets the requirements set out in Section 2. The EU declaration of conformity shall contain the information set out in Annex V, and shall be translated into a language that can be easily understood by the national competent authorities of the Member States in which the high-risk AI system is placed on the market or made available.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The provider shall draw up a written machine readable, physical or electronically signed EU declaration of conformity for each high-risk AI system, and keep it at the disposal of the national competent authorities for 10 years after the high-risk AI system has been placed on the market or put into service. The EU declaration of conformity shall identify the high-risk AI system for which it has been drawn up. A copy of the EU declaration of conformity shall be submitted to the relevant national competent authorities upon request.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Overview
+The approved quality management system for the design, development and testing of AI systems pursuant to Article 17 shall be examined in accordance with point 3 and shall be subject to surveillance as specified in point 5. The technical documentation of the AI system shall be examined in accordance with point 4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Introduction
+Conformity based on an assessment of the quality management system and an assessment of the technical documentation is the conformity assessment procedure based on points 2 to 5.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The provider examines the information contained in the technical documentation in order to assess the compliance of the AI system with the relevant essential requirements set out in Chapter III, Section 2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. The provider verifies that the established quality management system is in compliance with the requirements of Article 17.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The conformity assessment procedure based on internal control is the conformity assessment procedure based on points 2, 3 and 4.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. The Commission is empowered to adopt delegated acts in accordance with Article 97 in order to amend Annexes VI and VII by updating them in light of technical progress.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. High-risk AI systems that have already been subject to a conformity assessment procedure shall undergo a new conformity assessment procedure in the event of a substantial modification, regardless of whether the modified system is intended to be further distributed or continues to be used by the current deployer.
+For high-risk AI systems that continue to learn after being placed on the market or put into service, changes to the high-risk AI system and its performance that have been pre-determined by the provider at the moment of the initial conformity assessment and are part of the information contained in the technical documentation referred to in point 2(f) of Annex IV, shall not constitute a substantial modification.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. For high-risk AI systems covered by the Union harmonisation legislation listed in Section A of Annex I, the provider shall follow the relevant conformity assessment procedure as required under those legal acts. The requirements set out in Section 2 of this Chapter shall apply to those high-risk AI systems and shall be part of that assessment. Points 4.3., 4.4., 4.5. and the fifth paragraph of point 4.6 of Annex VII shall also apply.
+For the purposes of that assessment, notified bodies which have been notified under those legal acts shall be entitled to control the conformity of the high-risk AI systems with the requirements set out in Section 2, provided that the compliance of those notified bodies with requirements laid down in Article 31(4), (5), (10) and (11) has been assessed in the context of the notification procedure under those legal acts.
+Where a legal act listed in Section A of Annex I enables the product manufacturer to opt out from a third-party conformity assessment, provided that that manufacturer has applied all harmonised standards covering all the relevant requirements, that manufacturer may use that option only if it has also applied harmonised standards or, where applicable, common specifications referred to in Article 41, covering all requirements set out in Section 2 of this Chapter.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. For high-risk AI systems referred to in points 2 to 8 of Annex III, providers shall follow the conformity assessment procedure based on internal control as referred to in Annex VI, which does not provide for the involvement of a notified body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. For high-risk AI systems listed in point 1 of Annex III, where, in demonstrating the compliance of a high-risk AI system with the requirements set out in Section 2, the provider has applied harmonised standards referred to in Article 40, or, where applicable, common specifications referred to in Article 41, the provider shall opt for one of the following conformity assessment procedures based on:
+(a) the internal control referred to in Annex VI; or
+(b) the assessment of the quality management system and the assessment of the technical documentation, with the involvement of a notified body, referred to in Annex VII.
+In demonstrating the compliance of a high-risk AI system with the requirements set out in Section 2, the provider shall follow the conformity assessment procedure set out in Annex VII where:
+(a) harmonised standards referred to in Article 40 do not exist, and common specifications referred to in Article 41 are not available;
+(b) the provider has not applied, or has applied only part of, the harmonised standard;
+(c) the common specifications referred to in point (a) exist, but the provider has not applied them;
+(d) one or more of the harmonised standards referred to in point (a) has been published with a restriction, and only on the part of the standard that was restricted.
+For the purposes of the conformity assessment procedure referred to in Annex VII, the provider may choose any of the notified bodies. However, where the high-risk AI system is intended to be put into service by law enforcement, immigration or asylum authorities or by Union institutions, bodies, offices or agencies, the market surveillance authority referred to in Article 74(8) or (9), as applicable, shall act as a notified body.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers of high-risk AI systems which consider or have reason to consider that a high-risk AI system that they have placed on the market or put into service is not in conformity with this Regulation shall immediately take the necessary corrective actions to bring that system into conformity, to withdraw it, to disable it, or to recall it, as appropriate. They shall inform the distributors of the high-risk AI system concerned and, where applicable, the deployers, the authorised representative and importers accordingly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers of high-risk AI systems shall keep the logs referred to in Article 12(1), automatically generated by their high-risk AI systems, to the extent such logs are under their control. Without prejudice to applicable Union or national law, the logs shall be kept for a period appropriate to the intended purpose of the high-risk AI system, of at least six months, unless provided otherwise in the applicable Union or national law, in particular in Union law on the protection of personal data.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Each Member State shall determine conditions under which the documentation referred to in paragraph 1 remains at the disposal of the national competent authorities for the period indicated in that paragraph for the cases when a provider or its authorised representative established on its territory goes bankrupt or ceases its activity prior to the end of that period.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The provider shall, for a period ending 10 years after the high-risk AI system has been placed on the market or put into service, keep at the disposal of the national competent authorities:
+(a) the technical documentation referred to in Article 11;
+(b) the documentation concerning the quality management system referred to in Article 17;
+(c) the documentation concerning the changes approved by notified bodies, where applicable;
+(d) the decisions and other documents issued by the notified bodies, where applicable;
+(e) the EU declaration of conformity referred to in Article 47.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. Providers of high-risk AI systems that are subject to obligations regarding quality management systems or an equivalent function under relevant sectoral Union law may include the aspects listed in paragraph 1 as part of the quality management systems pursuant to that law.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. The implementation of the aspects referred to in paragraph 1 shall be proportionate to the size of the provider’s organisation. Providers shall, in any event, respect the degree of rigour and the level of protection required to ensure the compliance of their high-risk AI systems with this Regulation.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. Providers of high-risk AI systems shall put a quality management system in place that ensures compliance with this Regulation. That system shall be documented in a systematic and orderly manner in the form of written policies, procedures and instructions, and shall include at least the following aspects:
+(a) a strategy for regulatory compliance, including compliance with conformity assessment procedures and procedures for the management of modifications to the high-risk AI system;
+(b) techniques, procedures and systematic actions to be used for the design, design control and design verification of the high-risk AI system;
+(c) techniques, procedures and systematic actions to be used for the development, quality control and quality assurance of the high-risk AI system;
+(d) examination, test and validation procedures to be carried out before, during and after the development of the high-risk AI system, and the frequency with which they have to be carried out;
+(e) technical specifications, including standards, to be applied and, where the relevant harmonised standards are not applied in full or do not cover all of the relevant requirements set out in Section 2, the means to be used to ensure that the high-risk AI system complies with those requirements;
+(f) systems and procedures for data management, including data acquisition, data collection, data analysis, data labelling, data storage, data filtration, data mining, data aggregation, data retention and any other operation regarding the data that is performed before and for the purpose of the placing on the market or the putting into service of high-risk AI systems;
+(g) the risk management system referred to in Article 9;
+(h) the setting-up, implementation and maintenance of a post-market monitoring system, in accordance with Article 72;
+(i) procedures related to the reporting of a serious incident in accordance with Article 73;
+(j) the handling of communication with national competent authorities, other relevant authorities, including those providing or supporting the access to data, notified bodies, other operators, customers or other interested parties;
+(k) systems and procedures for record-keeping of all relevant documentation and information;
+(l) resource management, including security-of-supply related measures;
+(m) an accountability framework setting out the responsibilities of the management and other staff with regard to all the aspects listed in this paragraph.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indicate on the high-risk AI system or, where that is not possible, on its packaging or its accompanying documentation, as applicable, their name, registered trade name or registered trade mark, the address at which they can be contacted.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensure that the high-risk AI system complies with accessibility requirements in accordance with Directives (EU) 2016/2102 and (EU) 2019/882</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>upon a reasoned request of a national competent authority, demonstrate the conformity of the high-risk AI system with the requirements set out in Section 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. High-risk AI systems shall be as resilient as possible regarding errors, faults or inconsistencies that may occur within the system or the environment in which the system operates, in particular due to their interaction with natural persons or other systems. Technical and organisational measures shall be taken in this regard.
+The robustness of high-risk AI systems may be achieved through technical redundancy solutions, which may include backup or fail-safe plans.
+High-risk AI systems that continue to learn after being placed on the market or put into service shall be developed in such a way as to eliminate or reduce as far as possible the risk of possibly biased outputs influencing input for future operations (feedback loops), and as to ensure that any such feedback loops are duly addressed with appropriate mitigation measures.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The levels of accuracy and the relevant accuracy metrics of high-risk AI systems shall be declared in the accompanying instructions of use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall be designed and developed in such a way that they achieve an appropriate level of accuracy, robustness, and cybersecurity, and that they perform consistently in those respects throughout their lifecycle.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. To address the technical aspects of how to measure the appropriate levels of accuracy and robustness set out in paragraph 1 and any other relevant performance metrics, the Commission shall, in cooperation with relevant stakeholders and organisations such as metrology and benchmarking authorities, encourage, as appropriate, the development of benchmarks and measurement methodologies.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. For the purpose of implementing paragraphs 1, 2 and 3, the high-risk AI system shall be provided to the deployer in such a way that natural persons to whom human oversight is assigned are enabled, as appropriate and proportionate:
+(a) to properly understand the relevant capacities and limitations of the high-risk AI system and be able to duly monitor its operation, including in view of detecting and addressing anomalies, dysfunctions and unexpected performance;
+(b) to remain aware of the possible tendency of automatically relying or over-relying on the output produced by a high-risk AI system (automation bias), in particular for high-risk AI systems used to provide information or recommendations for decisions to be taken by natural persons;
+(c) to correctly interpret the high-risk AI system’s output, taking into account, for example, the interpretation tools and methods available;
+(d) to decide, in any particular situation, not to use the high-risk AI system or to otherwise disregard, override or reverse the output of the high-risk AI system;
+(e) to intervene in the operation of the high-risk AI system or interrupt the system through a ‘stop’ button or a similar procedure that allows the system to come to a halt in a safe state.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. The oversight measures shall be commensurate with the risks, level of autonomy and context of use of the high-risk AI system, and shall be ensured through either one or both of the following types of measures:
+(a) measures identified and built, when technically feasible, into the high-risk AI system by the provider before it is placed on the market or put into service;
+(b) measures identified by the provider before placing the high-risk AI system on the market or putting it into service and that are appropriate to be implemented by the deployer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Human oversight shall aim to prevent or minimise the risks to health, safety or fundamental rights that may emerge when a high-risk AI system is used in accordance with its intended purpose or under conditions of reasonably foreseeable misuse, in particular where such risks persist despite the application of other requirements set out in this Section.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. High-risk AI systems shall be designed and developed in such a way, including with appropriate human-machine interface tools, that they can be effectively overseen by natural persons during the period in which they are in use.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. The technical documentation of a high-risk AI system shall be drawn up before that system is placed on the market or put into service and shall be kept up-to date.
+The technical documentation shall be drawn up in such a way as to demonstrate that the high-risk AI system complies with the requirements set out in this Section and to provide national competent authorities and notified bodies with the necessary information in a clear and comprehensive form to assess the compliance of the AI system with those requirements. It shall contain, at a minimum, the elements set out in Annex IV. SMEs, including start-ups, may provide the elements of the technical documentation specified in Annex IV in a simplified manner. To that end, the Commission shall establish a simplified technical documentation form targeted at the needs of small and microenterprises. Where an SME, including a start-up, opts to provide the information required in Annex IV in a simplified manner, it shall use the form referred to in this paragraph. Notified bodies shall accept the form for the purposes of the conformity assessment.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. Where a high-risk AI system related to a product covered by the Union harmonisation legislation listed in Section A of Annex I is placed on the market or put into service, a single set of technical documentation shall be drawn up containing all the information set out in paragraph 1, as well as the information required under those legal acts.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +1042,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -499,6 +1052,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -836,8 +1395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30F773A5-F9BB-48EE-9537-D207D3148E67}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -848,10 +1407,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="330" x14ac:dyDescent="0.4">
@@ -859,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="330" x14ac:dyDescent="0.4">
@@ -867,7 +1426,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="118.8" x14ac:dyDescent="0.4">
@@ -875,15 +1434,15 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>21</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="132" x14ac:dyDescent="0.4">
@@ -891,7 +1450,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="250.8" x14ac:dyDescent="0.4">
@@ -899,7 +1458,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="224.4" x14ac:dyDescent="0.4">
@@ -907,7 +1466,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="171.6" x14ac:dyDescent="0.4">
@@ -915,7 +1474,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
@@ -923,7 +1482,7 @@
         <v>16</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>45</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
@@ -947,7 +1506,7 @@
         <v>8</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="132" x14ac:dyDescent="0.4">
@@ -955,7 +1514,7 @@
         <v>9</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
@@ -963,7 +1522,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
@@ -971,7 +1530,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="343.2" x14ac:dyDescent="0.4">
@@ -979,23 +1538,23 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="409.6" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="98.25" customHeight="1" x14ac:dyDescent="0.4">
@@ -1003,15 +1562,15 @@
         <v>12</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="118.8" x14ac:dyDescent="0.4">
       <c r="A21" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="79.2" x14ac:dyDescent="0.4">
@@ -1019,7 +1578,7 @@
         <v>13</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>43</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="184.8" x14ac:dyDescent="0.4">
@@ -1027,15 +1586,15 @@
         <v>15</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="198" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="145.19999999999999" x14ac:dyDescent="0.4">
@@ -1043,7 +1602,795 @@
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DA63B66-668A-4FF9-A4C6-7F5C27B73E3F}">
+  <dimension ref="A1:B96"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="B96" sqref="B96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="5.3984375" customWidth="1"/>
+    <col min="2" max="2" width="157.296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" s="5">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="A3" s="5">
+        <v>0</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A4" s="5">
+        <v>0</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A5" s="5">
+        <v>0</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="A6" s="5">
+        <v>0</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A7" s="5">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" s="5">
+        <v>0</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A9" s="5">
+        <v>0</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A10" s="5">
+        <v>0</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A11" s="5">
+        <v>0</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A12" s="5">
+        <v>1</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="132" x14ac:dyDescent="0.4">
+      <c r="A13" s="5">
+        <v>1</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A14" s="5">
+        <v>1</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A15" s="5">
+        <v>1</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="145.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A16" s="5">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="5">
+        <v>1</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="79.2" x14ac:dyDescent="0.4">
+      <c r="A18" s="5">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A19" s="5">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A20" s="5">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" s="5">
+        <v>3</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="118.8" x14ac:dyDescent="0.4">
+      <c r="A22" s="5">
+        <v>3</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="237.6" x14ac:dyDescent="0.4">
+      <c r="A23" s="5">
+        <v>3</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A24" s="5">
+        <v>3</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" s="5">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" s="5">
+        <v>3</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="5">
+        <v>3</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A28" s="5">
+        <v>3</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" s="5">
+        <v>3</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" s="5">
+        <v>3</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" s="5">
+        <v>4</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A32" s="5">
+        <v>4</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="66" x14ac:dyDescent="0.4">
+      <c r="A33" s="5">
+        <v>4</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A34" s="5">
+        <v>5</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A35" s="5">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="224.4" x14ac:dyDescent="0.4">
+      <c r="A36" s="5">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" s="5">
+        <v>6</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A38" s="5">
+        <v>6</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A39" s="5">
+        <v>6</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="118.8" x14ac:dyDescent="0.4">
+      <c r="A40" s="5">
+        <v>6</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A41" s="5">
+        <v>6</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" s="5">
+        <v>7</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A43" s="5">
+        <v>7</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" s="5">
+        <v>7</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="66" x14ac:dyDescent="0.4">
+      <c r="A45" s="5">
+        <v>7</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A46" s="5">
+        <v>7</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A47" s="5">
+        <v>8</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" s="5">
+        <v>9</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" s="5">
+        <v>10</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="224.4" x14ac:dyDescent="0.4">
+      <c r="A50" s="5">
+        <v>11</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A51" s="5">
+        <v>11</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A52" s="5">
+        <v>11</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A53" s="5">
+        <v>11</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="79.2" x14ac:dyDescent="0.4">
+      <c r="A54" s="5">
+        <v>12</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A55" s="5">
+        <v>12</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A56" s="5">
+        <v>12</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A57" s="5">
+        <v>13</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A58" s="5">
+        <v>13</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A59" s="5">
+        <v>14</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A60" s="5">
+        <v>14</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="145.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A61" s="5">
+        <v>15</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A62" s="5">
+        <v>15</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="A63" s="5">
+        <v>15</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="52.8" x14ac:dyDescent="0.4">
+      <c r="A64" s="5">
+        <v>15</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A65" s="5">
+        <v>15</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A66" s="5">
+        <v>15</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A67" s="5">
+        <v>16</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A68" s="5">
+        <v>16</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A69" s="5">
+        <v>16</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A70" s="5">
+        <v>16</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A71" s="5">
+        <v>17</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A72" s="5">
+        <v>17</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="211.2" x14ac:dyDescent="0.4">
+      <c r="A73" s="5">
+        <v>17</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="382.8" x14ac:dyDescent="0.4">
+      <c r="A74" s="5">
+        <v>17</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="79.2" x14ac:dyDescent="0.4">
+      <c r="A75" s="5">
+        <v>17</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A76" s="5">
+        <v>18</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A77" s="5">
+        <v>18</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A78" s="5">
+        <v>18</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A79" s="5">
+        <v>18</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A80" s="5">
+        <v>18</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="118.8" x14ac:dyDescent="0.4">
+      <c r="A81" s="5">
+        <v>19</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A82" s="5">
+        <v>20</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A83" s="5">
+        <v>20</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A84" s="5">
+        <v>20</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A85" s="5">
+        <v>20</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A86" s="5">
+        <v>20</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A87" s="5">
+        <v>21</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A88" s="5">
+        <v>21</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="26.4" x14ac:dyDescent="0.4">
+      <c r="A89" s="5">
+        <v>21</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="92.4" x14ac:dyDescent="0.4">
+      <c r="A90" s="5">
+        <v>21</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A91" s="5">
+        <v>21</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="184.8" x14ac:dyDescent="0.4">
+      <c r="A92" s="5">
+        <v>22</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A93" s="5">
+        <v>23</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A94" s="5">
+        <v>23</v>
+      </c>
+      <c r="B94" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="39.6" x14ac:dyDescent="0.4">
+      <c r="A95" s="5">
+        <v>23</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="66" x14ac:dyDescent="0.4">
+      <c r="A96" s="5">
+        <v>23</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
